--- a/IPC2024_base2010/imputacion/indprod_6_2024.xlsx
+++ b/IPC2024_base2010/imputacion/indprod_6_2024.xlsx
@@ -1272,7 +1272,7 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>166.9976473489605</v>
+        <v>167.1834282806795</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1398,7 +1398,7 @@
         <v>21</v>
       </c>
       <c r="D11">
-        <v>193.2091437280224</v>
+        <v>193.1950333723663</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1524,7 +1524,7 @@
         <v>30</v>
       </c>
       <c r="D20">
-        <v>206.5431581606914</v>
+        <v>206.560045919885</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1594,7 +1594,7 @@
         <v>35</v>
       </c>
       <c r="D25">
-        <v>183.9354590685804</v>
+        <v>183.9482311206338</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1636,7 +1636,7 @@
         <v>38</v>
       </c>
       <c r="D28">
-        <v>531.2030420085348</v>
+        <v>531.6582071551944</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1902,7 +1902,7 @@
         <v>57</v>
       </c>
       <c r="D47">
-        <v>2978.68770913098</v>
+        <v>2944.444232155228</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1916,7 +1916,7 @@
         <v>58</v>
       </c>
       <c r="D48">
-        <v>1891.668720701541</v>
+        <v>1916.419745274698</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1930,7 +1930,7 @@
         <v>59</v>
       </c>
       <c r="D49">
-        <v>1546.110486910959</v>
+        <v>1545.809750921107</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2784,7 +2784,7 @@
         <v>120</v>
       </c>
       <c r="D110">
-        <v>135.1863294602376</v>
+        <v>135.1863288781794</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -2882,7 +2882,7 @@
         <v>127</v>
       </c>
       <c r="D117">
-        <v>108.9676519082043</v>
+        <v>108.1230590340248</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2896,7 +2896,7 @@
         <v>128</v>
       </c>
       <c r="D118">
-        <v>341.7389309569023</v>
+        <v>342.1203568966906</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -3386,7 +3386,7 @@
         <v>163</v>
       </c>
       <c r="D153">
-        <v>112.8939835415117</v>
+        <v>112.6358852278609</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -3834,7 +3834,7 @@
         <v>195</v>
       </c>
       <c r="D185">
-        <v>109.7103793846245</v>
+        <v>109.7098521041067</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -3848,7 +3848,7 @@
         <v>196</v>
       </c>
       <c r="D186">
-        <v>109.2418822177186</v>
+        <v>109.2414451512954</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -3862,7 +3862,7 @@
         <v>197</v>
       </c>
       <c r="D187">
-        <v>104.1338383580319</v>
+        <v>104.1335608130098</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -5178,7 +5178,7 @@
         <v>12</v>
       </c>
       <c r="D281">
-        <v>185.7621765248687</v>
+        <v>186.4906796014149</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -5304,7 +5304,7 @@
         <v>21</v>
       </c>
       <c r="D290">
-        <v>183.8120650438362</v>
+        <v>183.7682739503119</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -5430,7 +5430,7 @@
         <v>30</v>
       </c>
       <c r="D299">
-        <v>171.3390903574106</v>
+        <v>171.3969096643682</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -5500,7 +5500,7 @@
         <v>35</v>
       </c>
       <c r="D304">
-        <v>167.2010013449095</v>
+        <v>167.2315935332429</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -5542,7 +5542,7 @@
         <v>38</v>
       </c>
       <c r="D307">
-        <v>349.342880541329</v>
+        <v>349.2405174423014</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -5808,7 +5808,7 @@
         <v>57</v>
       </c>
       <c r="D326">
-        <v>1248.503322142183</v>
+        <v>1124.660396879286</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -5822,7 +5822,7 @@
         <v>58</v>
       </c>
       <c r="D327">
-        <v>700.5939495441123</v>
+        <v>757.2928816336206</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -5836,7 +5836,7 @@
         <v>59</v>
       </c>
       <c r="D328">
-        <v>512.7859049187845</v>
+        <v>510.5030311042763</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -6788,7 +6788,7 @@
         <v>127</v>
       </c>
       <c r="D396">
-        <v>114.6520639705577</v>
+        <v>112.9657592504865</v>
       </c>
     </row>
     <row r="397" spans="1:4">
@@ -6802,7 +6802,7 @@
         <v>128</v>
       </c>
       <c r="D397">
-        <v>241.6109350435756</v>
+        <v>242.8465056048908</v>
       </c>
     </row>
     <row r="398" spans="1:4">
@@ -7740,7 +7740,7 @@
         <v>195</v>
       </c>
       <c r="D464">
-        <v>110.8159766853245</v>
+        <v>110.8153611386166</v>
       </c>
     </row>
     <row r="465" spans="1:4">
@@ -7754,7 +7754,7 @@
         <v>196</v>
       </c>
       <c r="D465">
-        <v>110.81200795899</v>
+        <v>110.811392434327</v>
       </c>
     </row>
     <row r="466" spans="1:4">
@@ -7768,7 +7768,7 @@
         <v>197</v>
       </c>
       <c r="D466">
-        <v>105.910371524397</v>
+        <v>105.9097677452567</v>
       </c>
     </row>
     <row r="467" spans="1:4">
@@ -13354,7 +13354,7 @@
         <v>38</v>
       </c>
       <c r="D865">
-        <v>503.4945659090677</v>
+        <v>505.8319587140891</v>
       </c>
     </row>
     <row r="866" spans="1:4">
@@ -15552,7 +15552,7 @@
         <v>195</v>
       </c>
       <c r="D1022">
-        <v>111.6316639330415</v>
+        <v>111.6288188995323</v>
       </c>
     </row>
     <row r="1023" spans="1:4">
@@ -15566,7 +15566,7 @@
         <v>196</v>
       </c>
       <c r="D1023">
-        <v>110.1418705370469</v>
+        <v>110.139765231753</v>
       </c>
     </row>
     <row r="1024" spans="1:4">
@@ -15580,7 +15580,7 @@
         <v>197</v>
       </c>
       <c r="D1024">
-        <v>104.8675634869901</v>
+        <v>104.8661436362158</v>
       </c>
     </row>
     <row r="1025" spans="1:4">
@@ -21166,7 +21166,7 @@
         <v>38</v>
       </c>
       <c r="D1423">
-        <v>374.5526686220941</v>
+        <v>375.5598363974794</v>
       </c>
     </row>
     <row r="1424" spans="1:4">
@@ -25072,7 +25072,7 @@
         <v>38</v>
       </c>
       <c r="D1702">
-        <v>424.2810919488079</v>
+        <v>425.8747497391626</v>
       </c>
     </row>
     <row r="1703" spans="1:4">
@@ -26220,7 +26220,7 @@
         <v>120</v>
       </c>
       <c r="D1784">
-        <v>138.9396424394828</v>
+        <v>138.9396404018316</v>
       </c>
     </row>
     <row r="1785" spans="1:4">
@@ -26822,7 +26822,7 @@
         <v>163</v>
       </c>
       <c r="D1827">
-        <v>109.2828054359617</v>
+        <v>108.1077925821672</v>
       </c>
     </row>
     <row r="1828" spans="1:4">
@@ -32884,7 +32884,7 @@
         <v>38</v>
       </c>
       <c r="D2260">
-        <v>928.3837206581446</v>
+        <v>928.8562328551927</v>
       </c>
     </row>
     <row r="2261" spans="1:4">

--- a/IPC2024_base2010/imputacion/indprod_6_2024.xlsx
+++ b/IPC2024_base2010/imputacion/indprod_6_2024.xlsx
@@ -1300,7 +1300,7 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>336.7123951562286</v>
+        <v>339.2693154328807</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1342,7 +1342,7 @@
         <v>17</v>
       </c>
       <c r="D7">
-        <v>198.7213064433516</v>
+        <v>199.3580264287858</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1384,7 +1384,7 @@
         <v>20</v>
       </c>
       <c r="D10">
-        <v>266.0838261755756</v>
+        <v>266.0132970644838</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1398,7 +1398,7 @@
         <v>21</v>
       </c>
       <c r="D11">
-        <v>193.1950333723663</v>
+        <v>193.1962554944492</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1412,7 +1412,7 @@
         <v>22</v>
       </c>
       <c r="D12">
-        <v>135.8245182070484</v>
+        <v>135.9480846095674</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1426,7 +1426,7 @@
         <v>23</v>
       </c>
       <c r="D13">
-        <v>157.5701165412291</v>
+        <v>157.5188264602526</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1440,7 +1440,7 @@
         <v>24</v>
       </c>
       <c r="D14">
-        <v>158.822652663096</v>
+        <v>158.8252067889203</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1454,7 +1454,7 @@
         <v>25</v>
       </c>
       <c r="D15">
-        <v>235.2953868411201</v>
+        <v>235.4669252750484</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1468,7 +1468,7 @@
         <v>26</v>
       </c>
       <c r="D16">
-        <v>239.6905966333618</v>
+        <v>239.6965978909437</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1482,7 +1482,7 @@
         <v>27</v>
       </c>
       <c r="D17">
-        <v>149.4724949138115</v>
+        <v>149.4701647900829</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1510,7 +1510,7 @@
         <v>29</v>
       </c>
       <c r="D19">
-        <v>357.865881212696</v>
+        <v>358.4339623899287</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1524,7 +1524,7 @@
         <v>30</v>
       </c>
       <c r="D20">
-        <v>206.560045919885</v>
+        <v>206.6447027415292</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1538,7 +1538,7 @@
         <v>31</v>
       </c>
       <c r="D21">
-        <v>294.2627954698133</v>
+        <v>294.1894273279376</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1552,7 +1552,7 @@
         <v>32</v>
       </c>
       <c r="D22">
-        <v>183.4546762402557</v>
+        <v>183.4584228973549</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1566,7 +1566,7 @@
         <v>33</v>
       </c>
       <c r="D23">
-        <v>1153.978972519883</v>
+        <v>1105.583632169971</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1580,7 +1580,7 @@
         <v>34</v>
       </c>
       <c r="D24">
-        <v>455.9156022907584</v>
+        <v>451.7110686129972</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1608,7 +1608,7 @@
         <v>36</v>
       </c>
       <c r="D26">
-        <v>2289.166635595255</v>
+        <v>2286.620945893644</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1622,7 +1622,7 @@
         <v>37</v>
       </c>
       <c r="D27">
-        <v>428.6967502003694</v>
+        <v>428.6274979102471</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1636,7 +1636,7 @@
         <v>38</v>
       </c>
       <c r="D28">
-        <v>531.6582071551944</v>
+        <v>531.3607564716946</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1678,7 +1678,7 @@
         <v>41</v>
       </c>
       <c r="D31">
-        <v>3940.593664039258</v>
+        <v>3964.738491532741</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1692,7 +1692,7 @@
         <v>42</v>
       </c>
       <c r="D32">
-        <v>1085.512137092676</v>
+        <v>1084.698963195957</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1720,7 +1720,7 @@
         <v>44</v>
       </c>
       <c r="D34">
-        <v>684.5214620269644</v>
+        <v>681.7053918289265</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1734,7 +1734,7 @@
         <v>45</v>
       </c>
       <c r="D35">
-        <v>1028.538786533485</v>
+        <v>1026.662085108766</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1748,7 +1748,7 @@
         <v>46</v>
       </c>
       <c r="D36">
-        <v>748.4918799550309</v>
+        <v>746.4983855549714</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1776,7 +1776,7 @@
         <v>48</v>
       </c>
       <c r="D38">
-        <v>938.1471221254657</v>
+        <v>937.8560868548333</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1790,7 +1790,7 @@
         <v>49</v>
       </c>
       <c r="D39">
-        <v>771.0765696266882</v>
+        <v>768.69904806005</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1818,7 +1818,7 @@
         <v>51</v>
       </c>
       <c r="D41">
-        <v>1068.259984514087</v>
+        <v>1065.877334513309</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1832,7 +1832,7 @@
         <v>52</v>
       </c>
       <c r="D42">
-        <v>608.9690979657508</v>
+        <v>604.7590378231364</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1846,7 +1846,7 @@
         <v>53</v>
       </c>
       <c r="D43">
-        <v>1020.076101648812</v>
+        <v>1018.324361136267</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1888,7 +1888,7 @@
         <v>56</v>
       </c>
       <c r="D46">
-        <v>872.163273898962</v>
+        <v>866.9683452863565</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1930,7 +1930,7 @@
         <v>59</v>
       </c>
       <c r="D49">
-        <v>1545.809750921107</v>
+        <v>1542.751650940578</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1944,7 +1944,7 @@
         <v>60</v>
       </c>
       <c r="D50">
-        <v>166.5084108097651</v>
+        <v>166.5122088949956</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1986,7 +1986,7 @@
         <v>63</v>
       </c>
       <c r="D53">
-        <v>133.6401563152549</v>
+        <v>133.6398031867834</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2042,7 +2042,7 @@
         <v>67</v>
       </c>
       <c r="D57">
-        <v>152.8803161126571</v>
+        <v>152.8000914197844</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2182,7 +2182,7 @@
         <v>77</v>
       </c>
       <c r="D67">
-        <v>153.3392585200773</v>
+        <v>153.308504033993</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2238,7 +2238,7 @@
         <v>81</v>
       </c>
       <c r="D71">
-        <v>144.9876008528637</v>
+        <v>145.018322559666</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2308,7 +2308,7 @@
         <v>86</v>
       </c>
       <c r="D76">
-        <v>128.1502728782243</v>
+        <v>128.1502016526998</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2462,7 +2462,7 @@
         <v>97</v>
       </c>
       <c r="D87">
-        <v>121.5219652503205</v>
+        <v>121.5222239082079</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2630,7 +2630,7 @@
         <v>109</v>
       </c>
       <c r="D99">
-        <v>120.4629079383253</v>
+        <v>120.4629714490572</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2840,7 +2840,7 @@
         <v>124</v>
       </c>
       <c r="D114">
-        <v>152.7468900821173</v>
+        <v>151.254592514659</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2882,7 +2882,7 @@
         <v>127</v>
       </c>
       <c r="D117">
-        <v>108.1230590340248</v>
+        <v>108.1072019227776</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -3064,7 +3064,7 @@
         <v>140</v>
       </c>
       <c r="D130">
-        <v>112.8593061453139</v>
+        <v>112.8561925223952</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -3344,7 +3344,7 @@
         <v>160</v>
       </c>
       <c r="D150">
-        <v>135.2270122213349</v>
+        <v>135.8707954328724</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3358,7 +3358,7 @@
         <v>161</v>
       </c>
       <c r="D151">
-        <v>136.6772569497011</v>
+        <v>136.7147047113407</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3372,7 +3372,7 @@
         <v>162</v>
       </c>
       <c r="D152">
-        <v>138.8922465284108</v>
+        <v>138.892133300939</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3386,7 +3386,7 @@
         <v>163</v>
       </c>
       <c r="D153">
-        <v>112.6358852278609</v>
+        <v>112.8939835415117</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -3400,7 +3400,7 @@
         <v>164</v>
       </c>
       <c r="D154">
-        <v>140.9420472470374</v>
+        <v>140.9404914039938</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3414,7 +3414,7 @@
         <v>165</v>
       </c>
       <c r="D155">
-        <v>108.9885534315301</v>
+        <v>108.9902379008694</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -3470,7 +3470,7 @@
         <v>169</v>
       </c>
       <c r="D159">
-        <v>122.6245417586975</v>
+        <v>122.6262681736011</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -3484,7 +3484,7 @@
         <v>170</v>
       </c>
       <c r="D160">
-        <v>137.9908409037156</v>
+        <v>137.7024134239995</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -3498,7 +3498,7 @@
         <v>171</v>
       </c>
       <c r="D161">
-        <v>135.0004693136095</v>
+        <v>134.9983008266299</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -3526,7 +3526,7 @@
         <v>173</v>
       </c>
       <c r="D163">
-        <v>138.6880819473398</v>
+        <v>138.6931682838459</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -3568,7 +3568,7 @@
         <v>176</v>
       </c>
       <c r="D166">
-        <v>137.5289348664335</v>
+        <v>137.5126847914196</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -3582,7 +3582,7 @@
         <v>177</v>
       </c>
       <c r="D167">
-        <v>126.9655263936956</v>
+        <v>127.0754041583691</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -3596,7 +3596,7 @@
         <v>178</v>
       </c>
       <c r="D168">
-        <v>185.4421528338464</v>
+        <v>185.4379569227658</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -3638,7 +3638,7 @@
         <v>181</v>
       </c>
       <c r="D171">
-        <v>156.036644072356</v>
+        <v>156.5041539830731</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -3750,7 +3750,7 @@
         <v>189</v>
       </c>
       <c r="D179">
-        <v>112.7190530585356</v>
+        <v>112.727730360676</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -3876,7 +3876,7 @@
         <v>198</v>
       </c>
       <c r="D188">
-        <v>145.6654540126504</v>
+        <v>145.7538889243344</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -3890,7 +3890,7 @@
         <v>199</v>
       </c>
       <c r="D189">
-        <v>137.2693186506442</v>
+        <v>137.0408785292174</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -4016,7 +4016,7 @@
         <v>208</v>
       </c>
       <c r="D198">
-        <v>942.9633494980824</v>
+        <v>901.8365177069194</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -4030,7 +4030,7 @@
         <v>209</v>
       </c>
       <c r="D199">
-        <v>124.1803550838498</v>
+        <v>122.7472093383789</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -4044,7 +4044,7 @@
         <v>210</v>
       </c>
       <c r="D200">
-        <v>92.21981103933096</v>
+        <v>92.21915096586338</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -4128,7 +4128,7 @@
         <v>216</v>
       </c>
       <c r="D206">
-        <v>114.4372315695785</v>
+        <v>115.1901080930626</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4156,7 +4156,7 @@
         <v>218</v>
       </c>
       <c r="D208">
-        <v>94.93565576210666</v>
+        <v>98.63286827819456</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4170,7 +4170,7 @@
         <v>219</v>
       </c>
       <c r="D209">
-        <v>96.457633539008</v>
+        <v>85.57266098397879</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4268,7 +4268,7 @@
         <v>226</v>
       </c>
       <c r="D216">
-        <v>108.9621788456372</v>
+        <v>110.968066660473</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4338,7 +4338,7 @@
         <v>231</v>
       </c>
       <c r="D221">
-        <v>113.498562026745</v>
+        <v>108.5301110160567</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -4394,7 +4394,7 @@
         <v>235</v>
       </c>
       <c r="D225">
-        <v>209.5935776650691</v>
+        <v>193.6412043429439</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -4478,7 +4478,7 @@
         <v>241</v>
       </c>
       <c r="D231">
-        <v>99.99999999999999</v>
+        <v>93.0408472012103</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -4492,7 +4492,7 @@
         <v>242</v>
       </c>
       <c r="D232">
-        <v>149.0983791002403</v>
+        <v>139.3934111213464</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -4548,7 +4548,7 @@
         <v>246</v>
       </c>
       <c r="D236">
-        <v>130.104135772797</v>
+        <v>131.6608369115057</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -4562,7 +4562,7 @@
         <v>247</v>
       </c>
       <c r="D237">
-        <v>285.436264365452</v>
+        <v>244.9240462596297</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -4604,7 +4604,7 @@
         <v>250</v>
       </c>
       <c r="D240">
-        <v>107.3841642380476</v>
+        <v>107.5923082191585</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -4646,7 +4646,7 @@
         <v>253</v>
       </c>
       <c r="D243">
-        <v>113.990906639641</v>
+        <v>113.7997167508703</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -4660,7 +4660,7 @@
         <v>254</v>
       </c>
       <c r="D244">
-        <v>155.2364261223249</v>
+        <v>155.2299401756373</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -4688,7 +4688,7 @@
         <v>256</v>
       </c>
       <c r="D246">
-        <v>151.8366453444718</v>
+        <v>151.7211800346609</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -4744,7 +4744,7 @@
         <v>260</v>
       </c>
       <c r="D250">
-        <v>118.4354124051773</v>
+        <v>114.403478846801</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -4800,7 +4800,7 @@
         <v>264</v>
       </c>
       <c r="D254">
-        <v>119.2531338470616</v>
+        <v>111.7459749915843</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -4814,7 +4814,7 @@
         <v>265</v>
       </c>
       <c r="D255">
-        <v>117.7639966308485</v>
+        <v>125.6754496405006</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -4842,7 +4842,7 @@
         <v>267</v>
       </c>
       <c r="D257">
-        <v>130.7767286700006</v>
+        <v>130.7784300999931</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -4870,7 +4870,7 @@
         <v>269</v>
       </c>
       <c r="D259">
-        <v>167.6304182131136</v>
+        <v>167.7493556098267</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -4884,7 +4884,7 @@
         <v>270</v>
       </c>
       <c r="D260">
-        <v>130.6255150150531</v>
+        <v>130.5592692445799</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -4912,7 +4912,7 @@
         <v>272</v>
       </c>
       <c r="D262">
-        <v>137.144883182418</v>
+        <v>137.1406437577639</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -4926,7 +4926,7 @@
         <v>273</v>
       </c>
       <c r="D263">
-        <v>110.6866851206395</v>
+        <v>113.6727612603071</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -4954,7 +4954,7 @@
         <v>275</v>
       </c>
       <c r="D265">
-        <v>155.3583721369135</v>
+        <v>162.6983383377399</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -4982,7 +4982,7 @@
         <v>277</v>
       </c>
       <c r="D267">
-        <v>142.4659320807944</v>
+        <v>142.4656500265462</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -4996,7 +4996,7 @@
         <v>278</v>
       </c>
       <c r="D268">
-        <v>148.2673493088517</v>
+        <v>148.2676736002647</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -5038,7 +5038,7 @@
         <v>281</v>
       </c>
       <c r="D271">
-        <v>134.5099682855086</v>
+        <v>134.4245108493635</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -5052,7 +5052,7 @@
         <v>282</v>
       </c>
       <c r="D272">
-        <v>122.0330845231949</v>
+        <v>122.1106643816771</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -5094,7 +5094,7 @@
         <v>285</v>
       </c>
       <c r="D275">
-        <v>104.3188191541502</v>
+        <v>106.4757872193676</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -5122,7 +5122,7 @@
         <v>287</v>
       </c>
       <c r="D277">
-        <v>97.93082636680198</v>
+        <v>94.58947500614269</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -5290,7 +5290,7 @@
         <v>20</v>
       </c>
       <c r="D289">
-        <v>239.3373827483209</v>
+        <v>238.9533196608888</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -5304,7 +5304,7 @@
         <v>21</v>
       </c>
       <c r="D290">
-        <v>183.7682739503119</v>
+        <v>183.7720667719627</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -5318,7 +5318,7 @@
         <v>22</v>
       </c>
       <c r="D291">
-        <v>130.7794636273193</v>
+        <v>131.3820962225364</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -5332,7 +5332,7 @@
         <v>23</v>
       </c>
       <c r="D292">
-        <v>144.3740271171325</v>
+        <v>144.2068531356808</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -5346,7 +5346,7 @@
         <v>24</v>
       </c>
       <c r="D293">
-        <v>130.1750837296883</v>
+        <v>130.1809670108578</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -5374,7 +5374,7 @@
         <v>26</v>
       </c>
       <c r="D295">
-        <v>172.5635145181446</v>
+        <v>172.5865517828367</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -5388,7 +5388,7 @@
         <v>27</v>
       </c>
       <c r="D296">
-        <v>148.9016317204232</v>
+        <v>148.8963788577062</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -5416,7 +5416,7 @@
         <v>29</v>
       </c>
       <c r="D298">
-        <v>154.3409260076215</v>
+        <v>154.3471842504582</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -5430,7 +5430,7 @@
         <v>30</v>
       </c>
       <c r="D299">
-        <v>171.3969096643682</v>
+        <v>171.5201113489637</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -5444,7 +5444,7 @@
         <v>31</v>
       </c>
       <c r="D300">
-        <v>351.1407676588163</v>
+        <v>350.9893669447371</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -5458,7 +5458,7 @@
         <v>32</v>
       </c>
       <c r="D301">
-        <v>198.8308420767187</v>
+        <v>198.8476280989082</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -5472,7 +5472,7 @@
         <v>33</v>
       </c>
       <c r="D302">
-        <v>309.848001776825</v>
+        <v>303.8683530552886</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -5528,7 +5528,7 @@
         <v>37</v>
       </c>
       <c r="D306">
-        <v>399.8583465211066</v>
+        <v>399.6535246947285</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -5542,7 +5542,7 @@
         <v>38</v>
       </c>
       <c r="D307">
-        <v>349.2405174423014</v>
+        <v>349.2689592457664</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -5598,7 +5598,7 @@
         <v>42</v>
       </c>
       <c r="D311">
-        <v>759.8954420660899</v>
+        <v>757.5333980352732</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -5626,7 +5626,7 @@
         <v>44</v>
       </c>
       <c r="D313">
-        <v>240.9546405657879</v>
+        <v>245.468991983229</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -5640,7 +5640,7 @@
         <v>45</v>
       </c>
       <c r="D314">
-        <v>423.248600122219</v>
+        <v>410.7657270168869</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -5654,7 +5654,7 @@
         <v>46</v>
       </c>
       <c r="D315">
-        <v>308.3087407327</v>
+        <v>303.8855705147441</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -5682,7 +5682,7 @@
         <v>48</v>
       </c>
       <c r="D317">
-        <v>441.6837840317426</v>
+        <v>437.3752018149831</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -5696,7 +5696,7 @@
         <v>49</v>
       </c>
       <c r="D318">
-        <v>440.6238583538686</v>
+        <v>437.6320014583999</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -5724,7 +5724,7 @@
         <v>51</v>
       </c>
       <c r="D320">
-        <v>202.9747295974368</v>
+        <v>199.6806123940224</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -5752,7 +5752,7 @@
         <v>53</v>
       </c>
       <c r="D322">
-        <v>611.2361965806409</v>
+        <v>603.1647490607822</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -5794,7 +5794,7 @@
         <v>56</v>
       </c>
       <c r="D325">
-        <v>371.2560682557745</v>
+        <v>358.9291889241255</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -5836,7 +5836,7 @@
         <v>59</v>
       </c>
       <c r="D328">
-        <v>510.5030311042763</v>
+        <v>505.6526126098996</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -5850,7 +5850,7 @@
         <v>60</v>
       </c>
       <c r="D329">
-        <v>151.7371858107716</v>
+        <v>151.764250890892</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -5892,7 +5892,7 @@
         <v>63</v>
       </c>
       <c r="D332">
-        <v>155.2114523238581</v>
+        <v>155.2099584446297</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -5948,7 +5948,7 @@
         <v>67</v>
       </c>
       <c r="D336">
-        <v>161.8228451957025</v>
+        <v>161.9324664917574</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -6088,7 +6088,7 @@
         <v>77</v>
       </c>
       <c r="D346">
-        <v>152.3094631585399</v>
+        <v>152.2343122115249</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -6144,7 +6144,7 @@
         <v>81</v>
       </c>
       <c r="D350">
-        <v>156.3300601783654</v>
+        <v>156.3207427340993</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -6214,7 +6214,7 @@
         <v>86</v>
       </c>
       <c r="D355">
-        <v>132.3745439410704</v>
+        <v>132.3743898630527</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -6536,7 +6536,7 @@
         <v>109</v>
       </c>
       <c r="D378">
-        <v>121.8443101588276</v>
+        <v>121.8445375962918</v>
       </c>
     </row>
     <row r="379" spans="1:4">
@@ -6746,7 +6746,7 @@
         <v>124</v>
       </c>
       <c r="D393">
-        <v>171.440158891556</v>
+        <v>169.1946501096809</v>
       </c>
     </row>
     <row r="394" spans="1:4">
@@ -6970,7 +6970,7 @@
         <v>140</v>
       </c>
       <c r="D409">
-        <v>113.4804928164788</v>
+        <v>113.467885197943</v>
       </c>
     </row>
     <row r="410" spans="1:4">
@@ -7278,7 +7278,7 @@
         <v>162</v>
       </c>
       <c r="D431">
-        <v>147.9211873767903</v>
+        <v>147.9208582336787</v>
       </c>
     </row>
     <row r="432" spans="1:4">
@@ -7376,7 +7376,7 @@
         <v>169</v>
       </c>
       <c r="D438">
-        <v>114.0191936449669</v>
+        <v>114.0239697633976</v>
       </c>
     </row>
     <row r="439" spans="1:4">
@@ -7404,7 +7404,7 @@
         <v>171</v>
       </c>
       <c r="D440">
-        <v>144.8683265717344</v>
+        <v>144.8623625779793</v>
       </c>
     </row>
     <row r="441" spans="1:4">
@@ -7432,7 +7432,7 @@
         <v>173</v>
       </c>
       <c r="D442">
-        <v>140.4709265242394</v>
+        <v>140.482787013643</v>
       </c>
     </row>
     <row r="443" spans="1:4">
@@ -7474,7 +7474,7 @@
         <v>176</v>
       </c>
       <c r="D445">
-        <v>147.8149680232372</v>
+        <v>147.7681203684795</v>
       </c>
     </row>
     <row r="446" spans="1:4">
@@ -7488,7 +7488,7 @@
         <v>177</v>
       </c>
       <c r="D446">
-        <v>123.6302877441595</v>
+        <v>123.6287251969268</v>
       </c>
     </row>
     <row r="447" spans="1:4">
@@ -7502,7 +7502,7 @@
         <v>178</v>
       </c>
       <c r="D447">
-        <v>206.1670286794395</v>
+        <v>206.1589505099915</v>
       </c>
     </row>
     <row r="448" spans="1:4">
@@ -7656,7 +7656,7 @@
         <v>189</v>
       </c>
       <c r="D458">
-        <v>112.103487458689</v>
+        <v>112.1081059485591</v>
       </c>
     </row>
     <row r="459" spans="1:4">
@@ -7796,7 +7796,7 @@
         <v>199</v>
       </c>
       <c r="D468">
-        <v>133.7016551076072</v>
+        <v>133.5072121769905</v>
       </c>
     </row>
     <row r="469" spans="1:4">
@@ -7922,7 +7922,7 @@
         <v>208</v>
       </c>
       <c r="D477">
-        <v>948.4773666760645</v>
+        <v>907.110044035397</v>
       </c>
     </row>
     <row r="478" spans="1:4">
@@ -7936,7 +7936,7 @@
         <v>209</v>
       </c>
       <c r="D478">
-        <v>139.7586561588736</v>
+        <v>138.4209168349798</v>
       </c>
     </row>
     <row r="479" spans="1:4">
@@ -7950,7 +7950,7 @@
         <v>210</v>
       </c>
       <c r="D479">
-        <v>90.19593653637087</v>
+        <v>90.1942175676142</v>
       </c>
     </row>
     <row r="480" spans="1:4">
@@ -8034,7 +8034,7 @@
         <v>216</v>
       </c>
       <c r="D485">
-        <v>115.4639975064937</v>
+        <v>116.2236290690364</v>
       </c>
     </row>
     <row r="486" spans="1:4">
@@ -8062,7 +8062,7 @@
         <v>218</v>
       </c>
       <c r="D487">
-        <v>124.0933067674769</v>
+        <v>128.9260466191205</v>
       </c>
     </row>
     <row r="488" spans="1:4">
@@ -8076,7 +8076,7 @@
         <v>219</v>
       </c>
       <c r="D488">
-        <v>87.05692244310902</v>
+        <v>77.23279368573773</v>
       </c>
     </row>
     <row r="489" spans="1:4">
@@ -8174,7 +8174,7 @@
         <v>226</v>
       </c>
       <c r="D495">
-        <v>108.9016201407063</v>
+        <v>110.9063931286399</v>
       </c>
     </row>
     <row r="496" spans="1:4">
@@ -8244,7 +8244,7 @@
         <v>231</v>
       </c>
       <c r="D500">
-        <v>110.9512477937842</v>
+        <v>106.0943066185448</v>
       </c>
     </row>
     <row r="501" spans="1:4">
@@ -8300,7 +8300,7 @@
         <v>235</v>
       </c>
       <c r="D504">
-        <v>176.2200171812081</v>
+        <v>162.8077383689338</v>
       </c>
     </row>
     <row r="505" spans="1:4">
@@ -8384,7 +8384,7 @@
         <v>241</v>
       </c>
       <c r="D510">
-        <v>100</v>
+        <v>93.0408472012103</v>
       </c>
     </row>
     <row r="511" spans="1:4">
@@ -8398,7 +8398,7 @@
         <v>242</v>
       </c>
       <c r="D511">
-        <v>151.6975166001039</v>
+        <v>140.6468114504957</v>
       </c>
     </row>
     <row r="512" spans="1:4">
@@ -8454,7 +8454,7 @@
         <v>246</v>
       </c>
       <c r="D515">
-        <v>138.6301326440316</v>
+        <v>140.7423562440302</v>
       </c>
     </row>
     <row r="516" spans="1:4">
@@ -8468,7 +8468,7 @@
         <v>247</v>
       </c>
       <c r="D516">
-        <v>367.4073021037661</v>
+        <v>315.2608630744124</v>
       </c>
     </row>
     <row r="517" spans="1:4">
@@ -8510,7 +8510,7 @@
         <v>250</v>
       </c>
       <c r="D519">
-        <v>107.4591606326993</v>
+        <v>107.6215630485739</v>
       </c>
     </row>
     <row r="520" spans="1:4">
@@ -8552,7 +8552,7 @@
         <v>253</v>
       </c>
       <c r="D522">
-        <v>116.193078353011</v>
+        <v>116.0778387951137</v>
       </c>
     </row>
     <row r="523" spans="1:4">
@@ -8566,7 +8566,7 @@
         <v>254</v>
       </c>
       <c r="D523">
-        <v>158.584921230276</v>
+        <v>158.5629259073979</v>
       </c>
     </row>
     <row r="524" spans="1:4">
@@ -8650,7 +8650,7 @@
         <v>260</v>
       </c>
       <c r="D529">
-        <v>118.1774446464023</v>
+        <v>114.1542931646235</v>
       </c>
     </row>
     <row r="530" spans="1:4">
@@ -8706,7 +8706,7 @@
         <v>264</v>
       </c>
       <c r="D533">
-        <v>118.627589</v>
+        <v>111.1598091057845</v>
       </c>
     </row>
     <row r="534" spans="1:4">
@@ -8720,7 +8720,7 @@
         <v>265</v>
       </c>
       <c r="D534">
-        <v>118.5762053737496</v>
+        <v>126.5422230337815</v>
       </c>
     </row>
     <row r="535" spans="1:4">
@@ -8748,7 +8748,7 @@
         <v>267</v>
       </c>
       <c r="D536">
-        <v>142.0066658214418</v>
+        <v>142.0115290829223</v>
       </c>
     </row>
     <row r="537" spans="1:4">
@@ -8776,7 +8776,7 @@
         <v>269</v>
       </c>
       <c r="D538">
-        <v>200.5373525579218</v>
+        <v>200.8015851912969</v>
       </c>
     </row>
     <row r="539" spans="1:4">
@@ -8790,7 +8790,7 @@
         <v>270</v>
       </c>
       <c r="D539">
-        <v>145.5662095503715</v>
+        <v>145.4113551276614</v>
       </c>
     </row>
     <row r="540" spans="1:4">
@@ -8818,7 +8818,7 @@
         <v>272</v>
       </c>
       <c r="D541">
-        <v>151.8769307683783</v>
+        <v>151.8665274481311</v>
       </c>
     </row>
     <row r="542" spans="1:4">
@@ -8832,7 +8832,7 @@
         <v>273</v>
       </c>
       <c r="D542">
-        <v>120.461984036936</v>
+        <v>123.224869691022</v>
       </c>
     </row>
     <row r="543" spans="1:4">
@@ -8860,7 +8860,7 @@
         <v>275</v>
       </c>
       <c r="D544">
-        <v>169.7791751123513</v>
+        <v>177.8004577106951</v>
       </c>
     </row>
     <row r="545" spans="1:4">
@@ -8888,7 +8888,7 @@
         <v>277</v>
       </c>
       <c r="D546">
-        <v>146.5389013141778</v>
+        <v>146.5383050972133</v>
       </c>
     </row>
     <row r="547" spans="1:4">
@@ -8902,7 +8902,7 @@
         <v>278</v>
       </c>
       <c r="D547">
-        <v>147.9859807910152</v>
+        <v>147.9866250261774</v>
       </c>
     </row>
     <row r="548" spans="1:4">
@@ -8944,7 +8944,7 @@
         <v>281</v>
       </c>
       <c r="D550">
-        <v>128.3980158397118</v>
+        <v>128.3164414747808</v>
       </c>
     </row>
     <row r="551" spans="1:4">
@@ -8958,7 +8958,7 @@
         <v>282</v>
       </c>
       <c r="D551">
-        <v>124.4540113347048</v>
+        <v>124.5331302443399</v>
       </c>
     </row>
     <row r="552" spans="1:4">
@@ -9000,7 +9000,7 @@
         <v>285</v>
       </c>
       <c r="D554">
-        <v>104.3188191541502</v>
+        <v>106.4757872193676</v>
       </c>
     </row>
     <row r="555" spans="1:4">
@@ -9028,7 +9028,7 @@
         <v>287</v>
       </c>
       <c r="D556">
-        <v>99.60857402019705</v>
+        <v>96.20997873939029</v>
       </c>
     </row>
     <row r="557" spans="1:4">
@@ -9112,7 +9112,7 @@
         <v>14</v>
       </c>
       <c r="D562">
-        <v>689.7207970685698</v>
+        <v>709.6756953690973</v>
       </c>
     </row>
     <row r="563" spans="1:4">
@@ -9378,7 +9378,7 @@
         <v>33</v>
       </c>
       <c r="D581">
-        <v>12731.83979040514</v>
+        <v>11100.3491844803</v>
       </c>
     </row>
     <row r="582" spans="1:4">
@@ -9392,7 +9392,7 @@
         <v>34</v>
       </c>
       <c r="D582">
-        <v>1398.960867484109</v>
+        <v>1332.147231964956</v>
       </c>
     </row>
     <row r="583" spans="1:4">
@@ -9490,7 +9490,7 @@
         <v>41</v>
       </c>
       <c r="D589">
-        <v>6945.776502451929</v>
+        <v>7283.104539528853</v>
       </c>
     </row>
     <row r="590" spans="1:4">
@@ -9588,7 +9588,7 @@
         <v>48</v>
       </c>
       <c r="D596">
-        <v>1591.255695803023</v>
+        <v>1516.141981339336</v>
       </c>
     </row>
     <row r="597" spans="1:4">
@@ -10050,7 +10050,7 @@
         <v>81</v>
       </c>
       <c r="D629">
-        <v>136.1441412337185</v>
+        <v>136.809937136154</v>
       </c>
     </row>
     <row r="630" spans="1:4">
@@ -11562,7 +11562,7 @@
         <v>189</v>
       </c>
       <c r="D737">
-        <v>110.522998324981</v>
+        <v>110.5239619132108</v>
       </c>
     </row>
     <row r="738" spans="1:4">
@@ -11702,7 +11702,7 @@
         <v>199</v>
       </c>
       <c r="D747">
-        <v>122.3173793522231</v>
+        <v>122.0075014472664</v>
       </c>
     </row>
     <row r="748" spans="1:4">
@@ -11828,7 +11828,7 @@
         <v>208</v>
       </c>
       <c r="D756">
-        <v>930.8287820561061</v>
+        <v>890.2311928005203</v>
       </c>
     </row>
     <row r="757" spans="1:4">
@@ -11842,7 +11842,7 @@
         <v>209</v>
       </c>
       <c r="D757">
-        <v>116.9320058541146</v>
+        <v>111.9613081376603</v>
       </c>
     </row>
     <row r="758" spans="1:4">
@@ -11940,7 +11940,7 @@
         <v>216</v>
       </c>
       <c r="D764">
-        <v>118.026736</v>
+        <v>118.8032276842105</v>
       </c>
     </row>
     <row r="765" spans="1:4">
@@ -11968,7 +11968,7 @@
         <v>218</v>
       </c>
       <c r="D766">
-        <v>71.70568107793916</v>
+        <v>74.4982160789117</v>
       </c>
     </row>
     <row r="767" spans="1:4">
@@ -11982,7 +11982,7 @@
         <v>219</v>
       </c>
       <c r="D767">
-        <v>98.97049516249498</v>
+        <v>87.80195324335556</v>
       </c>
     </row>
     <row r="768" spans="1:4">
@@ -12080,7 +12080,7 @@
         <v>226</v>
       </c>
       <c r="D774">
-        <v>86.39024217878639</v>
+        <v>87.98060257670606</v>
       </c>
     </row>
     <row r="775" spans="1:4">
@@ -12150,7 +12150,7 @@
         <v>231</v>
       </c>
       <c r="D779">
-        <v>110.8179842702963</v>
+        <v>105.9668767662166</v>
       </c>
     </row>
     <row r="780" spans="1:4">
@@ -12206,7 +12206,7 @@
         <v>235</v>
       </c>
       <c r="D783">
-        <v>114.2463140939597</v>
+        <v>105.5509147720589</v>
       </c>
     </row>
     <row r="784" spans="1:4">
@@ -12290,7 +12290,7 @@
         <v>241</v>
       </c>
       <c r="D789">
-        <v>100</v>
+        <v>93.0408472012103</v>
       </c>
     </row>
     <row r="790" spans="1:4">
@@ -12304,7 +12304,7 @@
         <v>242</v>
       </c>
       <c r="D790">
-        <v>137.7616418825941</v>
+        <v>132.864411619243</v>
       </c>
     </row>
     <row r="791" spans="1:4">
@@ -12360,7 +12360,7 @@
         <v>246</v>
       </c>
       <c r="D794">
-        <v>119.457848814522</v>
+        <v>120.513698179221</v>
       </c>
     </row>
     <row r="795" spans="1:4">
@@ -12374,7 +12374,7 @@
         <v>247</v>
       </c>
       <c r="D795">
-        <v>188.0705578123845</v>
+        <v>161.3775394101259</v>
       </c>
     </row>
     <row r="796" spans="1:4">
@@ -12416,7 +12416,7 @@
         <v>250</v>
       </c>
       <c r="D798">
-        <v>106.0553155154627</v>
+        <v>107.1805899465235</v>
       </c>
     </row>
     <row r="799" spans="1:4">
@@ -12458,7 +12458,7 @@
         <v>253</v>
       </c>
       <c r="D801">
-        <v>103.7404229332186</v>
+        <v>102.5041594642034</v>
       </c>
     </row>
     <row r="802" spans="1:4">
@@ -12500,7 +12500,7 @@
         <v>256</v>
       </c>
       <c r="D804">
-        <v>153.302679213726</v>
+        <v>151.7124331453929</v>
       </c>
     </row>
     <row r="805" spans="1:4">
@@ -12556,7 +12556,7 @@
         <v>260</v>
       </c>
       <c r="D808">
-        <v>124.3421098505507</v>
+        <v>120.1090927550333</v>
       </c>
     </row>
     <row r="809" spans="1:4">
@@ -12612,7 +12612,7 @@
         <v>264</v>
       </c>
       <c r="D812">
-        <v>118.251332</v>
+        <v>110.8072380331758</v>
       </c>
     </row>
     <row r="813" spans="1:4">
@@ -12626,7 +12626,7 @@
         <v>265</v>
       </c>
       <c r="D813">
-        <v>109.4616057557012</v>
+        <v>116.8152993723668</v>
       </c>
     </row>
     <row r="814" spans="1:4">
@@ -12738,7 +12738,7 @@
         <v>273</v>
       </c>
       <c r="D821">
-        <v>80.8849002503698</v>
+        <v>84.34652394316345</v>
       </c>
     </row>
     <row r="822" spans="1:4">
@@ -12766,7 +12766,7 @@
         <v>275</v>
       </c>
       <c r="D823">
-        <v>147.6246119697514</v>
+        <v>154.5991936891913</v>
       </c>
     </row>
     <row r="824" spans="1:4">
@@ -12850,7 +12850,7 @@
         <v>281</v>
       </c>
       <c r="D829">
-        <v>139.3273846697627</v>
+        <v>139.2388666124734</v>
       </c>
     </row>
     <row r="830" spans="1:4">
@@ -12864,7 +12864,7 @@
         <v>282</v>
       </c>
       <c r="D830">
-        <v>120.7488224807615</v>
+        <v>120.8255858978017</v>
       </c>
     </row>
     <row r="831" spans="1:4">
@@ -12906,7 +12906,7 @@
         <v>285</v>
       </c>
       <c r="D833">
-        <v>104.3188191541502</v>
+        <v>106.4757872193676</v>
       </c>
     </row>
     <row r="834" spans="1:4">
@@ -12934,7 +12934,7 @@
         <v>287</v>
       </c>
       <c r="D835">
-        <v>83.35675998824476</v>
+        <v>80.51266856432838</v>
       </c>
     </row>
     <row r="836" spans="1:4">
@@ -13172,7 +13172,7 @@
         <v>25</v>
       </c>
       <c r="D852">
-        <v>228.818112252601</v>
+        <v>230.9980149597989</v>
       </c>
     </row>
     <row r="853" spans="1:4">
@@ -13228,7 +13228,7 @@
         <v>29</v>
       </c>
       <c r="D856">
-        <v>179.3166404071756</v>
+        <v>184.433864938975</v>
       </c>
     </row>
     <row r="857" spans="1:4">
@@ -13354,7 +13354,7 @@
         <v>38</v>
       </c>
       <c r="D865">
-        <v>505.8319587140891</v>
+        <v>508.2362109920737</v>
       </c>
     </row>
     <row r="866" spans="1:4">
@@ -13396,7 +13396,7 @@
         <v>41</v>
       </c>
       <c r="D868">
-        <v>1064.255197220278</v>
+        <v>1041.493644125927</v>
       </c>
     </row>
     <row r="869" spans="1:4">
@@ -13536,7 +13536,7 @@
         <v>51</v>
       </c>
       <c r="D878">
-        <v>286.313995675729</v>
+        <v>294.2669616575989</v>
       </c>
     </row>
     <row r="879" spans="1:4">
@@ -13550,7 +13550,7 @@
         <v>52</v>
       </c>
       <c r="D879">
-        <v>212.4703816510949</v>
+        <v>206.4217623231357</v>
       </c>
     </row>
     <row r="880" spans="1:4">
@@ -13564,7 +13564,7 @@
         <v>53</v>
       </c>
       <c r="D880">
-        <v>329.2755909167887</v>
+        <v>317.6866307397277</v>
       </c>
     </row>
     <row r="881" spans="1:4">
@@ -13648,7 +13648,7 @@
         <v>59</v>
       </c>
       <c r="D886">
-        <v>466.0063976937121</v>
+        <v>449.384533142483</v>
       </c>
     </row>
     <row r="887" spans="1:4">
@@ -15062,7 +15062,7 @@
         <v>160</v>
       </c>
       <c r="D987">
-        <v>130.0908159489549</v>
+        <v>138.1740326129823</v>
       </c>
     </row>
     <row r="988" spans="1:4">
@@ -15132,7 +15132,7 @@
         <v>165</v>
       </c>
       <c r="D992">
-        <v>122.6050611062829</v>
+        <v>122.629396</v>
       </c>
     </row>
     <row r="993" spans="1:4">
@@ -15202,7 +15202,7 @@
         <v>170</v>
       </c>
       <c r="D997">
-        <v>130.0353319623099</v>
+        <v>125.288065</v>
       </c>
     </row>
     <row r="998" spans="1:4">
@@ -15468,7 +15468,7 @@
         <v>189</v>
       </c>
       <c r="D1016">
-        <v>110.6433506683097</v>
+        <v>110.646740433415</v>
       </c>
     </row>
     <row r="1017" spans="1:4">
@@ -15608,7 +15608,7 @@
         <v>199</v>
       </c>
       <c r="D1026">
-        <v>154.4966351311095</v>
+        <v>153.9908061350224</v>
       </c>
     </row>
     <row r="1027" spans="1:4">
@@ -15734,7 +15734,7 @@
         <v>208</v>
       </c>
       <c r="D1035">
-        <v>930.8287820561061</v>
+        <v>890.2311928005203</v>
       </c>
     </row>
     <row r="1036" spans="1:4">
@@ -15748,7 +15748,7 @@
         <v>209</v>
       </c>
       <c r="D1036">
-        <v>139.4064978710958</v>
+        <v>137.5859101332868</v>
       </c>
     </row>
     <row r="1037" spans="1:4">
@@ -15846,7 +15846,7 @@
         <v>216</v>
       </c>
       <c r="D1043">
-        <v>110.968916</v>
+        <v>111.6989746578947</v>
       </c>
     </row>
     <row r="1044" spans="1:4">
@@ -15874,7 +15874,7 @@
         <v>218</v>
       </c>
       <c r="D1045">
-        <v>74.2796494963065</v>
+        <v>77.17242616281564</v>
       </c>
     </row>
     <row r="1046" spans="1:4">
@@ -15888,7 +15888,7 @@
         <v>219</v>
       </c>
       <c r="D1046">
-        <v>104.8191964475471</v>
+        <v>92.99064504409226</v>
       </c>
     </row>
     <row r="1047" spans="1:4">
@@ -16056,7 +16056,7 @@
         <v>231</v>
       </c>
       <c r="D1058">
-        <v>134.6590060157764</v>
+        <v>128.7642469757481</v>
       </c>
     </row>
     <row r="1059" spans="1:4">
@@ -16112,7 +16112,7 @@
         <v>235</v>
       </c>
       <c r="D1062">
-        <v>87.64840774964486</v>
+        <v>80.97740123747721</v>
       </c>
     </row>
     <row r="1063" spans="1:4">
@@ -16196,7 +16196,7 @@
         <v>241</v>
       </c>
       <c r="D1068">
-        <v>100</v>
+        <v>93.0408472012103</v>
       </c>
     </row>
     <row r="1069" spans="1:4">
@@ -16210,7 +16210,7 @@
         <v>242</v>
       </c>
       <c r="D1069">
-        <v>132.844383710476</v>
+        <v>125.7184386289725</v>
       </c>
     </row>
     <row r="1070" spans="1:4">
@@ -16266,7 +16266,7 @@
         <v>246</v>
       </c>
       <c r="D1073">
-        <v>124.4528759520821</v>
+        <v>125.7373183819605</v>
       </c>
     </row>
     <row r="1074" spans="1:4">
@@ -16280,7 +16280,7 @@
         <v>247</v>
       </c>
       <c r="D1074">
-        <v>242.0908194405225</v>
+        <v>207.7306581611039</v>
       </c>
     </row>
     <row r="1075" spans="1:4">
@@ -16322,7 +16322,7 @@
         <v>250</v>
       </c>
       <c r="D1077">
-        <v>107.3975386481192</v>
+        <v>107.5834971496167</v>
       </c>
     </row>
     <row r="1078" spans="1:4">
@@ -16364,7 +16364,7 @@
         <v>253</v>
       </c>
       <c r="D1080">
-        <v>106.5408060219988</v>
+        <v>106.3973549957902</v>
       </c>
     </row>
     <row r="1081" spans="1:4">
@@ -16462,7 +16462,7 @@
         <v>260</v>
       </c>
       <c r="D1087">
-        <v>121.714148661672</v>
+        <v>117.5705960657699</v>
       </c>
     </row>
     <row r="1088" spans="1:4">
@@ -16518,7 +16518,7 @@
         <v>264</v>
       </c>
       <c r="D1091">
-        <v>125.6604545124253</v>
+        <v>117.7499454679747</v>
       </c>
     </row>
     <row r="1092" spans="1:4">
@@ -16532,7 +16532,7 @@
         <v>265</v>
       </c>
       <c r="D1092">
-        <v>125.4028319507431</v>
+        <v>133.8274663096259</v>
       </c>
     </row>
     <row r="1093" spans="1:4">
@@ -16644,7 +16644,7 @@
         <v>273</v>
       </c>
       <c r="D1100">
-        <v>108.317486856443</v>
+        <v>111.119921798128</v>
       </c>
     </row>
     <row r="1101" spans="1:4">
@@ -16672,7 +16672,7 @@
         <v>275</v>
       </c>
       <c r="D1102">
-        <v>154.0484476431432</v>
+        <v>161.326525956129</v>
       </c>
     </row>
     <row r="1103" spans="1:4">
@@ -16756,7 +16756,7 @@
         <v>281</v>
       </c>
       <c r="D1108">
-        <v>139.7241224362313</v>
+        <v>139.6353523218431</v>
       </c>
     </row>
     <row r="1109" spans="1:4">
@@ -16770,7 +16770,7 @@
         <v>282</v>
       </c>
       <c r="D1109">
-        <v>151.9961089199197</v>
+        <v>152.0927371143633</v>
       </c>
     </row>
     <row r="1110" spans="1:4">
@@ -16812,7 +16812,7 @@
         <v>285</v>
       </c>
       <c r="D1112">
-        <v>104.3188191541502</v>
+        <v>106.4757872193676</v>
       </c>
     </row>
     <row r="1113" spans="1:4">
@@ -16840,7 +16840,7 @@
         <v>287</v>
       </c>
       <c r="D1114">
-        <v>100.2136590195128</v>
+        <v>96.7944185377945</v>
       </c>
     </row>
     <row r="1115" spans="1:4">
@@ -17260,7 +17260,7 @@
         <v>38</v>
       </c>
       <c r="D1144">
-        <v>1460.909970223506</v>
+        <v>1468.168287826432</v>
       </c>
     </row>
     <row r="1145" spans="1:4">
@@ -17344,7 +17344,7 @@
         <v>44</v>
       </c>
       <c r="D1150">
-        <v>2551.402732559781</v>
+        <v>2483.037833584827</v>
       </c>
     </row>
     <row r="1151" spans="1:4">
@@ -17414,7 +17414,7 @@
         <v>49</v>
       </c>
       <c r="D1155">
-        <v>1155.031813485036</v>
+        <v>1111.058964023663</v>
       </c>
     </row>
     <row r="1156" spans="1:4">
@@ -18506,7 +18506,7 @@
         <v>127</v>
       </c>
       <c r="D1233">
-        <v>94.76634819122083</v>
+        <v>94.47746769338214</v>
       </c>
     </row>
     <row r="1234" spans="1:4">
@@ -19374,7 +19374,7 @@
         <v>189</v>
       </c>
       <c r="D1295">
-        <v>112.7805716461989</v>
+        <v>112.7911968967859</v>
       </c>
     </row>
     <row r="1296" spans="1:4">
@@ -19514,7 +19514,7 @@
         <v>199</v>
       </c>
       <c r="D1305">
-        <v>145.78551</v>
+        <v>145.5256616065095</v>
       </c>
     </row>
     <row r="1306" spans="1:4">
@@ -19640,7 +19640,7 @@
         <v>208</v>
       </c>
       <c r="D1314">
-        <v>930.8287820561061</v>
+        <v>890.2311928005203</v>
       </c>
     </row>
     <row r="1315" spans="1:4">
@@ -19654,7 +19654,7 @@
         <v>209</v>
       </c>
       <c r="D1315">
-        <v>115.3752304079984</v>
+        <v>114.420911671307</v>
       </c>
     </row>
     <row r="1316" spans="1:4">
@@ -19752,7 +19752,7 @@
         <v>216</v>
       </c>
       <c r="D1322">
-        <v>132.082234</v>
+        <v>132.9511960657895</v>
       </c>
     </row>
     <row r="1323" spans="1:4">
@@ -19780,7 +19780,7 @@
         <v>218</v>
       </c>
       <c r="D1324">
-        <v>90.35846862492794</v>
+        <v>93.87742531672933</v>
       </c>
     </row>
     <row r="1325" spans="1:4">
@@ -19892,7 +19892,7 @@
         <v>226</v>
       </c>
       <c r="D1332">
-        <v>93.85468530145749</v>
+        <v>95.58245884275338</v>
       </c>
     </row>
     <row r="1333" spans="1:4">
@@ -20018,7 +20018,7 @@
         <v>235</v>
       </c>
       <c r="D1341">
-        <v>107.3825503355705</v>
+        <v>99.20955882352941</v>
       </c>
     </row>
     <row r="1342" spans="1:4">
@@ -20102,7 +20102,7 @@
         <v>241</v>
       </c>
       <c r="D1347">
-        <v>100</v>
+        <v>93.0408472012103</v>
       </c>
     </row>
     <row r="1348" spans="1:4">
@@ -20116,7 +20116,7 @@
         <v>242</v>
       </c>
       <c r="D1348">
-        <v>145.0666524598219</v>
+        <v>137.455093178833</v>
       </c>
     </row>
     <row r="1349" spans="1:4">
@@ -20172,7 +20172,7 @@
         <v>246</v>
       </c>
       <c r="D1352">
-        <v>117.5949563460788</v>
+        <v>118.6278739271552</v>
       </c>
     </row>
     <row r="1353" spans="1:4">
@@ -20186,7 +20186,7 @@
         <v>247</v>
       </c>
       <c r="D1353">
-        <v>135.609640859789</v>
+        <v>116.3624461840275</v>
       </c>
     </row>
     <row r="1354" spans="1:4">
@@ -20228,7 +20228,7 @@
         <v>250</v>
       </c>
       <c r="D1356">
-        <v>110.653090558818</v>
+        <v>111.6113270557901</v>
       </c>
     </row>
     <row r="1357" spans="1:4">
@@ -20270,7 +20270,7 @@
         <v>253</v>
       </c>
       <c r="D1359">
-        <v>128.973125381922</v>
+        <v>128.804858</v>
       </c>
     </row>
     <row r="1360" spans="1:4">
@@ -20368,7 +20368,7 @@
         <v>260</v>
       </c>
       <c r="D1366">
-        <v>110.6072954075933</v>
+        <v>106.8418568694182</v>
       </c>
     </row>
     <row r="1367" spans="1:4">
@@ -20424,7 +20424,7 @@
         <v>264</v>
       </c>
       <c r="D1370">
-        <v>121.0976902316696</v>
+        <v>113.4744138591893</v>
       </c>
     </row>
     <row r="1371" spans="1:4">
@@ -20438,7 +20438,7 @@
         <v>265</v>
       </c>
       <c r="D1371">
-        <v>131.9517149176955</v>
+        <v>140.816307</v>
       </c>
     </row>
     <row r="1372" spans="1:4">
@@ -20550,7 +20550,7 @@
         <v>273</v>
       </c>
       <c r="D1379">
-        <v>92.66673400109319</v>
+        <v>96.01541981477774</v>
       </c>
     </row>
     <row r="1380" spans="1:4">
@@ -20578,7 +20578,7 @@
         <v>275</v>
       </c>
       <c r="D1381">
-        <v>179.5582282663034</v>
+        <v>188.0415260018993</v>
       </c>
     </row>
     <row r="1382" spans="1:4">
@@ -20662,7 +20662,7 @@
         <v>281</v>
       </c>
       <c r="D1387">
-        <v>152.4422773810332</v>
+        <v>152.345427115204</v>
       </c>
     </row>
     <row r="1388" spans="1:4">
@@ -20676,7 +20676,7 @@
         <v>282</v>
       </c>
       <c r="D1388">
-        <v>121.3688505926847</v>
+        <v>121.4460081790059</v>
       </c>
     </row>
     <row r="1389" spans="1:4">
@@ -20718,7 +20718,7 @@
         <v>285</v>
       </c>
       <c r="D1391">
-        <v>104.3188191541502</v>
+        <v>106.4757872193676</v>
       </c>
     </row>
     <row r="1392" spans="1:4">
@@ -20746,7 +20746,7 @@
         <v>287</v>
       </c>
       <c r="D1393">
-        <v>99.54185758564721</v>
+        <v>96.14553863659059</v>
       </c>
     </row>
     <row r="1394" spans="1:4">
@@ -21054,7 +21054,7 @@
         <v>30</v>
       </c>
       <c r="D1415">
-        <v>219.4906151693177</v>
+        <v>219.791358119934</v>
       </c>
     </row>
     <row r="1416" spans="1:4">
@@ -21166,7 +21166,7 @@
         <v>38</v>
       </c>
       <c r="D1423">
-        <v>375.5598363974794</v>
+        <v>376.407410472763</v>
       </c>
     </row>
     <row r="1424" spans="1:4">
@@ -21208,7 +21208,7 @@
         <v>41</v>
       </c>
       <c r="D1426">
-        <v>926.0587746666057</v>
+        <v>932.4042208236576</v>
       </c>
     </row>
     <row r="1427" spans="1:4">
@@ -21306,7 +21306,7 @@
         <v>48</v>
       </c>
       <c r="D1433">
-        <v>698.0851582280349</v>
+        <v>706.6896047695476</v>
       </c>
     </row>
     <row r="1434" spans="1:4">
@@ -21460,7 +21460,7 @@
         <v>59</v>
       </c>
       <c r="D1444">
-        <v>595.6291280989675</v>
+        <v>585.777581043671</v>
       </c>
     </row>
     <row r="1445" spans="1:4">
@@ -21992,7 +21992,7 @@
         <v>97</v>
       </c>
       <c r="D1482">
-        <v>119.1368815264464</v>
+        <v>119.139080736723</v>
       </c>
     </row>
     <row r="1483" spans="1:4">
@@ -23112,7 +23112,7 @@
         <v>177</v>
       </c>
       <c r="D1562">
-        <v>125.116775915177</v>
+        <v>125.9676442662859</v>
       </c>
     </row>
     <row r="1563" spans="1:4">
@@ -23280,7 +23280,7 @@
         <v>189</v>
       </c>
       <c r="D1574">
-        <v>113.7279461094889</v>
+        <v>113.7406163940642</v>
       </c>
     </row>
     <row r="1575" spans="1:4">
@@ -23406,7 +23406,7 @@
         <v>198</v>
       </c>
       <c r="D1583">
-        <v>116.8738915110075</v>
+        <v>117.7222727145291</v>
       </c>
     </row>
     <row r="1584" spans="1:4">
@@ -23420,7 +23420,7 @@
         <v>199</v>
       </c>
       <c r="D1584">
-        <v>133.6544326512516</v>
+        <v>132.9620350163753</v>
       </c>
     </row>
     <row r="1585" spans="1:4">
@@ -23546,7 +23546,7 @@
         <v>208</v>
       </c>
       <c r="D1593">
-        <v>930.8287820561061</v>
+        <v>890.2311928005203</v>
       </c>
     </row>
     <row r="1594" spans="1:4">
@@ -23560,7 +23560,7 @@
         <v>209</v>
       </c>
       <c r="D1594">
-        <v>103.1456267379469</v>
+        <v>102.7536638352079</v>
       </c>
     </row>
     <row r="1595" spans="1:4">
@@ -23658,7 +23658,7 @@
         <v>216</v>
       </c>
       <c r="D1601">
-        <v>103.0159506492142</v>
+        <v>103.6936871666432</v>
       </c>
     </row>
     <row r="1602" spans="1:4">
@@ -23686,7 +23686,7 @@
         <v>218</v>
       </c>
       <c r="D1603">
-        <v>109.1935980977932</v>
+        <v>113.4460776780203</v>
       </c>
     </row>
     <row r="1604" spans="1:4">
@@ -23700,7 +23700,7 @@
         <v>219</v>
       </c>
       <c r="D1604">
-        <v>103.9726847405549</v>
+        <v>92.23965980151821</v>
       </c>
     </row>
     <row r="1605" spans="1:4">
@@ -23798,7 +23798,7 @@
         <v>226</v>
       </c>
       <c r="D1611">
-        <v>127.3235189067541</v>
+        <v>129.6674211471718</v>
       </c>
     </row>
     <row r="1612" spans="1:4">
@@ -23924,7 +23924,7 @@
         <v>235</v>
       </c>
       <c r="D1620">
-        <v>92.99597315436242</v>
+        <v>85.91795818014707</v>
       </c>
     </row>
     <row r="1621" spans="1:4">
@@ -24008,7 +24008,7 @@
         <v>241</v>
       </c>
       <c r="D1626">
-        <v>100</v>
+        <v>93.0408472012103</v>
       </c>
     </row>
     <row r="1627" spans="1:4">
@@ -24022,7 +24022,7 @@
         <v>242</v>
       </c>
       <c r="D1627">
-        <v>176.54972473961</v>
+        <v>160.3098481889432</v>
       </c>
     </row>
     <row r="1628" spans="1:4">
@@ -24078,7 +24078,7 @@
         <v>246</v>
       </c>
       <c r="D1631">
-        <v>136.4795853092246</v>
+        <v>138.1518589481458</v>
       </c>
     </row>
     <row r="1632" spans="1:4">
@@ -24092,7 +24092,7 @@
         <v>247</v>
       </c>
       <c r="D1632">
-        <v>188.2718095641962</v>
+        <v>161.5502273251677</v>
       </c>
     </row>
     <row r="1633" spans="1:4">
@@ -24134,7 +24134,7 @@
         <v>250</v>
       </c>
       <c r="D1635">
-        <v>105.9807187631539</v>
+        <v>106.0771915589281</v>
       </c>
     </row>
     <row r="1636" spans="1:4">
@@ -24176,7 +24176,7 @@
         <v>253</v>
       </c>
       <c r="D1638">
-        <v>113.2862626710348</v>
+        <v>113.138971</v>
       </c>
     </row>
     <row r="1639" spans="1:4">
@@ -24274,7 +24274,7 @@
         <v>260</v>
       </c>
       <c r="D1645">
-        <v>105.4291018663244</v>
+        <v>101.8399461804383</v>
       </c>
     </row>
     <row r="1646" spans="1:4">
@@ -24330,7 +24330,7 @@
         <v>264</v>
       </c>
       <c r="D1649">
-        <v>116.1990194955424</v>
+        <v>108.8841215967377</v>
       </c>
     </row>
     <row r="1650" spans="1:4">
@@ -24344,7 +24344,7 @@
         <v>265</v>
       </c>
       <c r="D1650">
-        <v>113.0690060518546</v>
+        <v>120.6650468947228</v>
       </c>
     </row>
     <row r="1651" spans="1:4">
@@ -24456,7 +24456,7 @@
         <v>273</v>
       </c>
       <c r="D1658">
-        <v>114.7189644861906</v>
+        <v>118.0268031082669</v>
       </c>
     </row>
     <row r="1659" spans="1:4">
@@ -24484,7 +24484,7 @@
         <v>275</v>
       </c>
       <c r="D1660">
-        <v>125.0742636269188</v>
+        <v>130.9834454430477</v>
       </c>
     </row>
     <row r="1661" spans="1:4">
@@ -24568,7 +24568,7 @@
         <v>281</v>
       </c>
       <c r="D1666">
-        <v>153.628554510731</v>
+        <v>153.5309505743498</v>
       </c>
     </row>
     <row r="1667" spans="1:4">
@@ -24582,7 +24582,7 @@
         <v>282</v>
       </c>
       <c r="D1667">
-        <v>119.0380648948571</v>
+        <v>119.1137407352623</v>
       </c>
     </row>
     <row r="1668" spans="1:4">
@@ -24624,7 +24624,7 @@
         <v>285</v>
       </c>
       <c r="D1670">
-        <v>104.3188191541502</v>
+        <v>106.4757872193676</v>
       </c>
     </row>
     <row r="1671" spans="1:4">
@@ -24652,7 +24652,7 @@
         <v>287</v>
       </c>
       <c r="D1672">
-        <v>96.27527467490489</v>
+        <v>92.99040991916453</v>
       </c>
     </row>
     <row r="1673" spans="1:4">
@@ -24736,7 +24736,7 @@
         <v>14</v>
       </c>
       <c r="D1678">
-        <v>223.0179713125571</v>
+        <v>222.8574278427729</v>
       </c>
     </row>
     <row r="1679" spans="1:4">
@@ -24848,7 +24848,7 @@
         <v>22</v>
       </c>
       <c r="D1686">
-        <v>127.8298284266109</v>
+        <v>127.235013712839</v>
       </c>
     </row>
     <row r="1687" spans="1:4">
@@ -24960,7 +24960,7 @@
         <v>30</v>
       </c>
       <c r="D1694">
-        <v>205.1776183577993</v>
+        <v>205.2086283750461</v>
       </c>
     </row>
     <row r="1695" spans="1:4">
@@ -25016,7 +25016,7 @@
         <v>34</v>
       </c>
       <c r="D1698">
-        <v>306.4058603813451</v>
+        <v>304.3891142125988</v>
       </c>
     </row>
     <row r="1699" spans="1:4">
@@ -25072,7 +25072,7 @@
         <v>38</v>
       </c>
       <c r="D1702">
-        <v>425.8747497391626</v>
+        <v>421.9525125031884</v>
       </c>
     </row>
     <row r="1703" spans="1:4">
@@ -25170,7 +25170,7 @@
         <v>45</v>
       </c>
       <c r="D1709">
-        <v>356.6472282820732</v>
+        <v>356.2093013538045</v>
       </c>
     </row>
     <row r="1710" spans="1:4">
@@ -25254,7 +25254,7 @@
         <v>51</v>
       </c>
       <c r="D1715">
-        <v>367.5475221501279</v>
+        <v>359.0682729975908</v>
       </c>
     </row>
     <row r="1716" spans="1:4">
@@ -25268,7 +25268,7 @@
         <v>52</v>
       </c>
       <c r="D1716">
-        <v>426.10045581509</v>
+        <v>413.1385179398894</v>
       </c>
     </row>
     <row r="1717" spans="1:4">
@@ -25282,7 +25282,7 @@
         <v>53</v>
       </c>
       <c r="D1717">
-        <v>471.5661891135843</v>
+        <v>474.8676406867459</v>
       </c>
     </row>
     <row r="1718" spans="1:4">
@@ -25324,7 +25324,7 @@
         <v>56</v>
       </c>
       <c r="D1720">
-        <v>489.5299143380078</v>
+        <v>488.3299679085902</v>
       </c>
     </row>
     <row r="1721" spans="1:4">
@@ -25366,7 +25366,7 @@
         <v>59</v>
       </c>
       <c r="D1723">
-        <v>399.6127510199524</v>
+        <v>397.1692516311018</v>
       </c>
     </row>
     <row r="1724" spans="1:4">
@@ -25478,7 +25478,7 @@
         <v>67</v>
       </c>
       <c r="D1731">
-        <v>138.1760130511637</v>
+        <v>137.4220329082347</v>
       </c>
     </row>
     <row r="1732" spans="1:4">
@@ -26794,7 +26794,7 @@
         <v>161</v>
       </c>
       <c r="D1825">
-        <v>133.6520482585849</v>
+        <v>133.834895418145</v>
       </c>
     </row>
     <row r="1826" spans="1:4">
@@ -26822,7 +26822,7 @@
         <v>163</v>
       </c>
       <c r="D1827">
-        <v>108.1077925821672</v>
+        <v>109.2828054359617</v>
       </c>
     </row>
     <row r="1828" spans="1:4">
@@ -26836,7 +26836,7 @@
         <v>164</v>
       </c>
       <c r="D1828">
-        <v>111.7932828771533</v>
+        <v>111.7797973669747</v>
       </c>
     </row>
     <row r="1829" spans="1:4">
@@ -27074,7 +27074,7 @@
         <v>181</v>
       </c>
       <c r="D1845">
-        <v>158.9986235902514</v>
+        <v>159.0140507163888</v>
       </c>
     </row>
     <row r="1846" spans="1:4">
@@ -27186,7 +27186,7 @@
         <v>189</v>
       </c>
       <c r="D1853">
-        <v>114.4688733314474</v>
+        <v>114.4860408323722</v>
       </c>
     </row>
     <row r="1854" spans="1:4">
@@ -27326,7 +27326,7 @@
         <v>199</v>
       </c>
       <c r="D1863">
-        <v>159.3023361009843</v>
+        <v>159.2092143941019</v>
       </c>
     </row>
     <row r="1864" spans="1:4">
@@ -27452,7 +27452,7 @@
         <v>208</v>
       </c>
       <c r="D1872">
-        <v>930.8287820561061</v>
+        <v>890.2311928005203</v>
       </c>
     </row>
     <row r="1873" spans="1:4">
@@ -27466,7 +27466,7 @@
         <v>209</v>
       </c>
       <c r="D1873">
-        <v>123.8549681734975</v>
+        <v>123.4287773025582</v>
       </c>
     </row>
     <row r="1874" spans="1:4">
@@ -27564,7 +27564,7 @@
         <v>216</v>
       </c>
       <c r="D1880">
-        <v>110.779814</v>
+        <v>111.5086285657895</v>
       </c>
     </row>
     <row r="1881" spans="1:4">
@@ -27592,7 +27592,7 @@
         <v>218</v>
       </c>
       <c r="D1882">
-        <v>57.51177936287055</v>
+        <v>59.75154132349486</v>
       </c>
     </row>
     <row r="1883" spans="1:4">
@@ -27606,7 +27606,7 @@
         <v>219</v>
       </c>
       <c r="D1883">
-        <v>99.65555323831708</v>
+        <v>88.4097044427767</v>
       </c>
     </row>
     <row r="1884" spans="1:4">
@@ -27704,7 +27704,7 @@
         <v>226</v>
       </c>
       <c r="D1890">
-        <v>99.79991833249434</v>
+        <v>101.6371378358629</v>
       </c>
     </row>
     <row r="1891" spans="1:4">
@@ -27774,7 +27774,7 @@
         <v>231</v>
       </c>
       <c r="D1895">
-        <v>134.7945712288308</v>
+        <v>128.8938777601387</v>
       </c>
     </row>
     <row r="1896" spans="1:4">
@@ -27830,7 +27830,7 @@
         <v>235</v>
       </c>
       <c r="D1899">
-        <v>344.1608215995309</v>
+        <v>317.9664030006062</v>
       </c>
     </row>
     <row r="1900" spans="1:4">
@@ -27914,7 +27914,7 @@
         <v>241</v>
       </c>
       <c r="D1905">
-        <v>100</v>
+        <v>93.0408472012103</v>
       </c>
     </row>
     <row r="1906" spans="1:4">
@@ -27928,7 +27928,7 @@
         <v>242</v>
       </c>
       <c r="D1906">
-        <v>148.7917702637322</v>
+        <v>141.6976475873938</v>
       </c>
     </row>
     <row r="1907" spans="1:4">
@@ -27984,7 +27984,7 @@
         <v>246</v>
       </c>
       <c r="D1910">
-        <v>118.0821606500157</v>
+        <v>119.1741446356257</v>
       </c>
     </row>
     <row r="1911" spans="1:4">
@@ -27998,7 +27998,7 @@
         <v>247</v>
       </c>
       <c r="D1911">
-        <v>260.0593665697526</v>
+        <v>223.1489137148668</v>
       </c>
     </row>
     <row r="1912" spans="1:4">
@@ -28040,7 +28040,7 @@
         <v>250</v>
       </c>
       <c r="D1914">
-        <v>107.0573068000457</v>
+        <v>107.4326044536065</v>
       </c>
     </row>
     <row r="1915" spans="1:4">
@@ -28082,7 +28082,7 @@
         <v>253</v>
       </c>
       <c r="D1917">
-        <v>115.1303002123044</v>
+        <v>114.9703928250578</v>
       </c>
     </row>
     <row r="1918" spans="1:4">
@@ -28180,7 +28180,7 @@
         <v>260</v>
       </c>
       <c r="D1924">
-        <v>132.8305039868821</v>
+        <v>128.3085138512921</v>
       </c>
     </row>
     <row r="1925" spans="1:4">
@@ -28236,7 +28236,7 @@
         <v>264</v>
       </c>
       <c r="D1928">
-        <v>119.1681060118827</v>
+        <v>111.6662997827493</v>
       </c>
     </row>
     <row r="1929" spans="1:4">
@@ -28250,7 +28250,7 @@
         <v>265</v>
       </c>
       <c r="D1929">
-        <v>115.1788423346107</v>
+        <v>122.9166231921407</v>
       </c>
     </row>
     <row r="1930" spans="1:4">
@@ -28362,7 +28362,7 @@
         <v>273</v>
       </c>
       <c r="D1937">
-        <v>103.8497423919704</v>
+        <v>106.8358182908383</v>
       </c>
     </row>
     <row r="1938" spans="1:4">
@@ -28390,7 +28390,7 @@
         <v>275</v>
       </c>
       <c r="D1939">
-        <v>150.8854302197569</v>
+        <v>158.0140705548535</v>
       </c>
     </row>
     <row r="1940" spans="1:4">
@@ -28474,7 +28474,7 @@
         <v>281</v>
       </c>
       <c r="D1945">
-        <v>141.8722778881344</v>
+        <v>141.7821429986319</v>
       </c>
     </row>
     <row r="1946" spans="1:4">
@@ -28488,7 +28488,7 @@
         <v>282</v>
       </c>
       <c r="D1946">
-        <v>141.3943630221331</v>
+        <v>141.4842513890158</v>
       </c>
     </row>
     <row r="1947" spans="1:4">
@@ -28530,7 +28530,7 @@
         <v>285</v>
       </c>
       <c r="D1949">
-        <v>104.3188191541502</v>
+        <v>106.4757872193676</v>
       </c>
     </row>
     <row r="1950" spans="1:4">
@@ -28558,7 +28558,7 @@
         <v>287</v>
       </c>
       <c r="D1951">
-        <v>84.85038396866575</v>
+        <v>81.95533083325928</v>
       </c>
     </row>
     <row r="1952" spans="1:4">
@@ -29118,7 +29118,7 @@
         <v>48</v>
       </c>
       <c r="D1991">
-        <v>744.8269736805511</v>
+        <v>765.5453651524273</v>
       </c>
     </row>
     <row r="1992" spans="1:4">
@@ -30980,7 +30980,7 @@
         <v>181</v>
       </c>
       <c r="D2124">
-        <v>151.0483963262834</v>
+        <v>154.1001584385017</v>
       </c>
     </row>
     <row r="2125" spans="1:4">
@@ -31092,7 +31092,7 @@
         <v>189</v>
       </c>
       <c r="D2132">
-        <v>114.6047173450296</v>
+        <v>114.6212528207576</v>
       </c>
     </row>
     <row r="2133" spans="1:4">
@@ -31232,7 +31232,7 @@
         <v>199</v>
       </c>
       <c r="D2142">
-        <v>122.1006458270557</v>
+        <v>121.965525633816</v>
       </c>
     </row>
     <row r="2143" spans="1:4">
@@ -31358,7 +31358,7 @@
         <v>208</v>
       </c>
       <c r="D2151">
-        <v>930.8287820561061</v>
+        <v>890.2311928005203</v>
       </c>
     </row>
     <row r="2152" spans="1:4">
@@ -31372,7 +31372,7 @@
         <v>209</v>
       </c>
       <c r="D2152">
-        <v>110.222773</v>
+        <v>108.1445667041942</v>
       </c>
     </row>
     <row r="2153" spans="1:4">
@@ -31470,7 +31470,7 @@
         <v>216</v>
       </c>
       <c r="D2159">
-        <v>119.412271</v>
+        <v>120.1978780460526</v>
       </c>
     </row>
     <row r="2160" spans="1:4">
@@ -31498,7 +31498,7 @@
         <v>218</v>
       </c>
       <c r="D2161">
-        <v>58.45957656038731</v>
+        <v>60.73624991782287</v>
       </c>
     </row>
     <row r="2162" spans="1:4">
@@ -31512,7 +31512,7 @@
         <v>219</v>
       </c>
       <c r="D2162">
-        <v>92.65108167358585</v>
+        <v>82.19566778658736</v>
       </c>
     </row>
     <row r="2163" spans="1:4">
@@ -31610,7 +31610,7 @@
         <v>226</v>
       </c>
       <c r="D2169">
-        <v>117.9890688260158</v>
+        <v>120.1611329123738</v>
       </c>
     </row>
     <row r="2170" spans="1:4">
@@ -31680,7 +31680,7 @@
         <v>231</v>
       </c>
       <c r="D2174">
-        <v>102.61188067099</v>
+        <v>98.11999907245247</v>
       </c>
     </row>
     <row r="2175" spans="1:4">
@@ -31736,7 +31736,7 @@
         <v>235</v>
       </c>
       <c r="D2178">
-        <v>201.3422818791946</v>
+        <v>186.0179227941176</v>
       </c>
     </row>
     <row r="2179" spans="1:4">
@@ -31820,7 +31820,7 @@
         <v>241</v>
       </c>
       <c r="D2184">
-        <v>100</v>
+        <v>93.0408472012103</v>
       </c>
     </row>
     <row r="2185" spans="1:4">
@@ -31834,7 +31834,7 @@
         <v>242</v>
       </c>
       <c r="D2185">
-        <v>115.8037756515899</v>
+        <v>114.185101006011</v>
       </c>
     </row>
     <row r="2186" spans="1:4">
@@ -31890,7 +31890,7 @@
         <v>246</v>
       </c>
       <c r="D2189">
-        <v>128.1821697867603</v>
+        <v>128.8983050169179</v>
       </c>
     </row>
     <row r="2190" spans="1:4">
@@ -31904,7 +31904,7 @@
         <v>247</v>
       </c>
       <c r="D2190">
-        <v>110.9614984228451</v>
+        <v>95.21263611395619</v>
       </c>
     </row>
     <row r="2191" spans="1:4">
@@ -31946,7 +31946,7 @@
         <v>250</v>
       </c>
       <c r="D2193">
-        <v>109.1693633595296</v>
+        <v>109.2756613529944</v>
       </c>
     </row>
     <row r="2194" spans="1:4">
@@ -31988,7 +31988,7 @@
         <v>253</v>
       </c>
       <c r="D2196">
-        <v>100.7218984110108</v>
+        <v>100.5886521851069</v>
       </c>
     </row>
     <row r="2197" spans="1:4">
@@ -32086,7 +32086,7 @@
         <v>260</v>
       </c>
       <c r="D2203">
-        <v>116.8753186072509</v>
+        <v>112.8964958069691</v>
       </c>
     </row>
     <row r="2204" spans="1:4">
@@ -32142,7 +32142,7 @@
         <v>264</v>
       </c>
       <c r="D2207">
-        <v>138.3043275472018</v>
+        <v>129.5978682383138</v>
       </c>
     </row>
     <row r="2208" spans="1:4">
@@ -32156,7 +32156,7 @@
         <v>265</v>
       </c>
       <c r="D2208">
-        <v>114.326829832295</v>
+        <v>122.007372</v>
       </c>
     </row>
     <row r="2209" spans="1:4">
@@ -32268,7 +32268,7 @@
         <v>273</v>
       </c>
       <c r="D2216">
-        <v>94.52715204350969</v>
+        <v>98.50549431621961</v>
       </c>
     </row>
     <row r="2217" spans="1:4">
@@ -32296,7 +32296,7 @@
         <v>275</v>
       </c>
       <c r="D2218">
-        <v>133.1327236951994</v>
+        <v>139.4226305647535</v>
       </c>
     </row>
     <row r="2219" spans="1:4">
@@ -32380,7 +32380,7 @@
         <v>281</v>
       </c>
       <c r="D2224">
-        <v>144.293054974322</v>
+        <v>144.2013821065871</v>
       </c>
     </row>
     <row r="2225" spans="1:4">
@@ -32394,7 +32394,7 @@
         <v>282</v>
       </c>
       <c r="D2225">
-        <v>127.023669787839</v>
+        <v>127.1044223015081</v>
       </c>
     </row>
     <row r="2226" spans="1:4">
@@ -32436,7 +32436,7 @@
         <v>285</v>
       </c>
       <c r="D2228">
-        <v>104.3188191541502</v>
+        <v>106.4757872193676</v>
       </c>
     </row>
     <row r="2229" spans="1:4">
@@ -32464,7 +32464,7 @@
         <v>287</v>
       </c>
       <c r="D2230">
-        <v>96.21881435188416</v>
+        <v>92.93587599444096</v>
       </c>
     </row>
     <row r="2231" spans="1:4">
@@ -32548,7 +32548,7 @@
         <v>14</v>
       </c>
       <c r="D2236">
-        <v>580.2747035435415</v>
+        <v>580.3773250068075</v>
       </c>
     </row>
     <row r="2237" spans="1:4">
@@ -32590,7 +32590,7 @@
         <v>17</v>
       </c>
       <c r="D2239">
-        <v>130.42124386345</v>
+        <v>139.124332981448</v>
       </c>
     </row>
     <row r="2240" spans="1:4">
@@ -32730,7 +32730,7 @@
         <v>27</v>
       </c>
       <c r="D2249">
-        <v>118.9167738578792</v>
+        <v>118.9264157650845</v>
       </c>
     </row>
     <row r="2250" spans="1:4">
@@ -32856,7 +32856,7 @@
         <v>36</v>
       </c>
       <c r="D2258">
-        <v>1327.478468531939</v>
+        <v>1271.080510047515</v>
       </c>
     </row>
     <row r="2259" spans="1:4">
@@ -32884,7 +32884,7 @@
         <v>38</v>
       </c>
       <c r="D2260">
-        <v>928.8562328551927</v>
+        <v>920.879650138275</v>
       </c>
     </row>
     <row r="2261" spans="1:4">
@@ -35138,7 +35138,7 @@
         <v>199</v>
       </c>
       <c r="D2421">
-        <v>131.5052756772666</v>
+        <v>131.3424121102272</v>
       </c>
     </row>
     <row r="2422" spans="1:4">
@@ -35264,7 +35264,7 @@
         <v>208</v>
       </c>
       <c r="D2430">
-        <v>930.8287820561061</v>
+        <v>890.2311928005203</v>
       </c>
     </row>
     <row r="2431" spans="1:4">
@@ -35376,7 +35376,7 @@
         <v>216</v>
       </c>
       <c r="D2438">
-        <v>111.5690000577287</v>
+        <v>112.3030066370559</v>
       </c>
     </row>
     <row r="2439" spans="1:4">
@@ -35404,7 +35404,7 @@
         <v>218</v>
       </c>
       <c r="D2440">
-        <v>65.69019853908075</v>
+        <v>68.24846415881358</v>
       </c>
     </row>
     <row r="2441" spans="1:4">
@@ -35418,7 +35418,7 @@
         <v>219</v>
       </c>
       <c r="D2441">
-        <v>103.0805870437075</v>
+        <v>91.44823281978496</v>
       </c>
     </row>
     <row r="2442" spans="1:4">
@@ -35516,7 +35516,7 @@
         <v>226</v>
       </c>
       <c r="D2448">
-        <v>104.9718507625287</v>
+        <v>106.904280515458</v>
       </c>
     </row>
     <row r="2449" spans="1:4">
@@ -35586,7 +35586,7 @@
         <v>231</v>
       </c>
       <c r="D2453">
-        <v>120.2825496924082</v>
+        <v>115.0171265459319</v>
       </c>
     </row>
     <row r="2454" spans="1:4">
@@ -35642,7 +35642,7 @@
         <v>235</v>
       </c>
       <c r="D2457">
-        <v>107.5424973415846</v>
+        <v>99.35733210561497</v>
       </c>
     </row>
     <row r="2458" spans="1:4">
@@ -35726,7 +35726,7 @@
         <v>241</v>
       </c>
       <c r="D2463">
-        <v>100</v>
+        <v>93.0408472012103</v>
       </c>
     </row>
     <row r="2464" spans="1:4">
@@ -35740,7 +35740,7 @@
         <v>242</v>
       </c>
       <c r="D2464">
-        <v>118.7751368570093</v>
+        <v>116.5107866308468</v>
       </c>
     </row>
     <row r="2465" spans="1:4">
@@ -35796,7 +35796,7 @@
         <v>246</v>
       </c>
       <c r="D2468">
-        <v>122.9820512663986</v>
+        <v>124.1065650751426</v>
       </c>
     </row>
     <row r="2469" spans="1:4">
@@ -35810,7 +35810,7 @@
         <v>247</v>
       </c>
       <c r="D2469">
-        <v>102.2200303661933</v>
+        <v>87.71185224739284</v>
       </c>
     </row>
     <row r="2470" spans="1:4">
@@ -35852,7 +35852,7 @@
         <v>250</v>
       </c>
       <c r="D2472">
-        <v>103.5344232448194</v>
+        <v>103.7454412302942</v>
       </c>
     </row>
     <row r="2473" spans="1:4">
@@ -35894,7 +35894,7 @@
         <v>253</v>
       </c>
       <c r="D2475">
-        <v>112.6259174774577</v>
+        <v>112.4699093922568</v>
       </c>
     </row>
     <row r="2476" spans="1:4">
@@ -35992,7 +35992,7 @@
         <v>260</v>
       </c>
       <c r="D2482">
-        <v>105.6923426486315</v>
+        <v>102.0942253749689</v>
       </c>
     </row>
     <row r="2483" spans="1:4">
@@ -36048,7 +36048,7 @@
         <v>264</v>
       </c>
       <c r="D2486">
-        <v>117.942533</v>
+        <v>110.5178783809952</v>
       </c>
     </row>
     <row r="2487" spans="1:4">
@@ -36062,7 +36062,7 @@
         <v>265</v>
       </c>
       <c r="D2487">
-        <v>115.0782432142341</v>
+        <v>122.8092657650112</v>
       </c>
     </row>
     <row r="2488" spans="1:4">
@@ -36118,7 +36118,7 @@
         <v>269</v>
       </c>
       <c r="D2491">
-        <v>149.5766008947996</v>
+        <v>150.4958595667606</v>
       </c>
     </row>
     <row r="2492" spans="1:4">
@@ -36174,7 +36174,7 @@
         <v>273</v>
       </c>
       <c r="D2495">
-        <v>90.65044148497491</v>
+        <v>93.1324106479312</v>
       </c>
     </row>
     <row r="2496" spans="1:4">
@@ -36202,7 +36202,7 @@
         <v>275</v>
       </c>
       <c r="D2497">
-        <v>134.9420489417157</v>
+        <v>141.3174380802526</v>
       </c>
     </row>
     <row r="2498" spans="1:4">
@@ -36286,7 +36286,7 @@
         <v>281</v>
       </c>
       <c r="D2503">
-        <v>131.9495151157487</v>
+        <v>131.8656843974302</v>
       </c>
     </row>
     <row r="2504" spans="1:4">
@@ -36300,7 +36300,7 @@
         <v>282</v>
       </c>
       <c r="D2504">
-        <v>144.7573941325701</v>
+        <v>144.8494204727625</v>
       </c>
     </row>
     <row r="2505" spans="1:4">
@@ -36342,7 +36342,7 @@
         <v>285</v>
       </c>
       <c r="D2507">
-        <v>104.3188191541502</v>
+        <v>106.4757872193676</v>
       </c>
     </row>
     <row r="2508" spans="1:4">
@@ -36370,7 +36370,7 @@
         <v>287</v>
       </c>
       <c r="D2509">
-        <v>77.59397888845932</v>
+        <v>74.94651070549088</v>
       </c>
     </row>
     <row r="2510" spans="1:4">

--- a/IPC2024_base2010/imputacion/indprod_6_2024.xlsx
+++ b/IPC2024_base2010/imputacion/indprod_6_2024.xlsx
@@ -1398,7 +1398,7 @@
         <v>21</v>
       </c>
       <c r="D11">
-        <v>193.1962554944492</v>
+        <v>193.1950333723663</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1426,7 +1426,7 @@
         <v>23</v>
       </c>
       <c r="D13">
-        <v>157.5188264602526</v>
+        <v>157.5181738231137</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1440,7 +1440,7 @@
         <v>24</v>
       </c>
       <c r="D14">
-        <v>158.8252067889203</v>
+        <v>158.822652663096</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1468,7 +1468,7 @@
         <v>26</v>
       </c>
       <c r="D16">
-        <v>239.6965978909437</v>
+        <v>239.6905966333618</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1482,7 +1482,7 @@
         <v>27</v>
       </c>
       <c r="D17">
-        <v>149.4701647900829</v>
+        <v>149.4728803412361</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1510,7 +1510,7 @@
         <v>29</v>
       </c>
       <c r="D19">
-        <v>358.4339623899287</v>
+        <v>358.4321217454988</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1524,7 +1524,7 @@
         <v>30</v>
       </c>
       <c r="D20">
-        <v>206.6447027415292</v>
+        <v>206.6375125488271</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1538,7 +1538,7 @@
         <v>31</v>
       </c>
       <c r="D21">
-        <v>294.1894273279376</v>
+        <v>294.2627954698133</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1552,7 +1552,7 @@
         <v>32</v>
       </c>
       <c r="D22">
-        <v>183.4584228973549</v>
+        <v>183.4546762402557</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1622,7 +1622,7 @@
         <v>37</v>
       </c>
       <c r="D27">
-        <v>428.6274979102471</v>
+        <v>428.6967502003694</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1636,7 +1636,7 @@
         <v>38</v>
       </c>
       <c r="D28">
-        <v>531.3607564716946</v>
+        <v>531.3468949194203</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1986,7 +1986,7 @@
         <v>63</v>
       </c>
       <c r="D53">
-        <v>133.6398031867834</v>
+        <v>133.6401563152549</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2042,7 +2042,7 @@
         <v>67</v>
       </c>
       <c r="D57">
-        <v>152.8000914197844</v>
+        <v>152.7564296903254</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2182,7 +2182,7 @@
         <v>77</v>
       </c>
       <c r="D67">
-        <v>153.308504033993</v>
+        <v>153.3392585200773</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2238,7 +2238,7 @@
         <v>81</v>
       </c>
       <c r="D71">
-        <v>145.018322559666</v>
+        <v>145.0207612359154</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2308,7 +2308,7 @@
         <v>86</v>
       </c>
       <c r="D76">
-        <v>128.1502016526998</v>
+        <v>128.1502728782243</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2462,7 +2462,7 @@
         <v>97</v>
       </c>
       <c r="D87">
-        <v>121.5222239082079</v>
+        <v>121.5219652503205</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2630,7 +2630,7 @@
         <v>109</v>
       </c>
       <c r="D99">
-        <v>120.4629714490572</v>
+        <v>120.4629079383253</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -3064,7 +3064,7 @@
         <v>140</v>
       </c>
       <c r="D130">
-        <v>112.8561925223952</v>
+        <v>112.8593061453139</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -3372,7 +3372,7 @@
         <v>162</v>
       </c>
       <c r="D152">
-        <v>138.892133300939</v>
+        <v>138.8922465284108</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3400,7 +3400,7 @@
         <v>164</v>
       </c>
       <c r="D154">
-        <v>140.9404914039938</v>
+        <v>140.9420472470374</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3470,7 +3470,7 @@
         <v>169</v>
       </c>
       <c r="D159">
-        <v>122.6262681736011</v>
+        <v>122.6245417586975</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -3498,7 +3498,7 @@
         <v>171</v>
       </c>
       <c r="D161">
-        <v>134.9983008266299</v>
+        <v>135.0004693136095</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -3526,7 +3526,7 @@
         <v>173</v>
       </c>
       <c r="D163">
-        <v>138.6931682838459</v>
+        <v>138.6880819473398</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -3568,7 +3568,7 @@
         <v>176</v>
       </c>
       <c r="D166">
-        <v>137.5126847914196</v>
+        <v>137.5289348664335</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -3582,7 +3582,7 @@
         <v>177</v>
       </c>
       <c r="D167">
-        <v>127.0754041583691</v>
+        <v>127.075842160457</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -3596,7 +3596,7 @@
         <v>178</v>
       </c>
       <c r="D168">
-        <v>185.4379569227658</v>
+        <v>185.4421528338464</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -3750,7 +3750,7 @@
         <v>189</v>
       </c>
       <c r="D179">
-        <v>112.727730360676</v>
+        <v>112.7190530585356</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -4044,7 +4044,7 @@
         <v>210</v>
       </c>
       <c r="D200">
-        <v>92.21915096586338</v>
+        <v>92.21981103933096</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -4548,7 +4548,7 @@
         <v>246</v>
       </c>
       <c r="D236">
-        <v>131.6608369115057</v>
+        <v>131.6628788080257</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -4660,7 +4660,7 @@
         <v>254</v>
       </c>
       <c r="D244">
-        <v>155.2299401756373</v>
+        <v>155.2364261223249</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -4842,7 +4842,7 @@
         <v>267</v>
       </c>
       <c r="D257">
-        <v>130.7784300999931</v>
+        <v>130.7767286700006</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -4912,7 +4912,7 @@
         <v>272</v>
       </c>
       <c r="D262">
-        <v>137.1406437577639</v>
+        <v>137.144883182418</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -4982,7 +4982,7 @@
         <v>277</v>
       </c>
       <c r="D267">
-        <v>142.4656500265462</v>
+        <v>142.4659320807944</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -4996,7 +4996,7 @@
         <v>278</v>
       </c>
       <c r="D268">
-        <v>148.2676736002647</v>
+        <v>148.2673493088517</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -5304,7 +5304,7 @@
         <v>21</v>
       </c>
       <c r="D290">
-        <v>183.7720667719627</v>
+        <v>183.7682739503119</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -5332,7 +5332,7 @@
         <v>23</v>
       </c>
       <c r="D292">
-        <v>144.2068531356808</v>
+        <v>144.2047259417504</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -5346,7 +5346,7 @@
         <v>24</v>
       </c>
       <c r="D293">
-        <v>130.1809670108578</v>
+        <v>130.1750837296883</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -5374,7 +5374,7 @@
         <v>26</v>
       </c>
       <c r="D295">
-        <v>172.5865517828367</v>
+        <v>172.5635145181446</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -5388,7 +5388,7 @@
         <v>27</v>
       </c>
       <c r="D296">
-        <v>148.8963788577062</v>
+        <v>148.9016317204232</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -5416,7 +5416,7 @@
         <v>29</v>
       </c>
       <c r="D298">
-        <v>154.3471842504582</v>
+        <v>154.3409260076215</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -5444,7 +5444,7 @@
         <v>31</v>
       </c>
       <c r="D300">
-        <v>350.9893669447371</v>
+        <v>351.1407676588163</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -5458,7 +5458,7 @@
         <v>32</v>
       </c>
       <c r="D301">
-        <v>198.8476280989082</v>
+        <v>198.8308420767187</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -5528,7 +5528,7 @@
         <v>37</v>
       </c>
       <c r="D306">
-        <v>399.6535246947285</v>
+        <v>399.8583465211066</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -5542,7 +5542,7 @@
         <v>38</v>
       </c>
       <c r="D307">
-        <v>349.2689592457664</v>
+        <v>349.2309891693532</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -5892,7 +5892,7 @@
         <v>63</v>
       </c>
       <c r="D332">
-        <v>155.2099584446297</v>
+        <v>155.2114523238581</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -5948,7 +5948,7 @@
         <v>67</v>
       </c>
       <c r="D336">
-        <v>161.9324664917574</v>
+        <v>161.8228451957025</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -6088,7 +6088,7 @@
         <v>77</v>
       </c>
       <c r="D346">
-        <v>152.2343122115249</v>
+        <v>152.3094631585399</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -6144,7 +6144,7 @@
         <v>81</v>
       </c>
       <c r="D350">
-        <v>156.3207427340993</v>
+        <v>156.3300601783654</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -6214,7 +6214,7 @@
         <v>86</v>
       </c>
       <c r="D355">
-        <v>132.3743898630527</v>
+        <v>132.3745439410704</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -6536,7 +6536,7 @@
         <v>109</v>
       </c>
       <c r="D378">
-        <v>121.8445375962918</v>
+        <v>121.8443101588276</v>
       </c>
     </row>
     <row r="379" spans="1:4">
@@ -6970,7 +6970,7 @@
         <v>140</v>
       </c>
       <c r="D409">
-        <v>113.467885197943</v>
+        <v>113.4804928164788</v>
       </c>
     </row>
     <row r="410" spans="1:4">
@@ -7278,7 +7278,7 @@
         <v>162</v>
       </c>
       <c r="D431">
-        <v>147.9208582336787</v>
+        <v>147.9211873767903</v>
       </c>
     </row>
     <row r="432" spans="1:4">
@@ -7376,7 +7376,7 @@
         <v>169</v>
       </c>
       <c r="D438">
-        <v>114.0239697633976</v>
+        <v>114.0191936449669</v>
       </c>
     </row>
     <row r="439" spans="1:4">
@@ -7404,7 +7404,7 @@
         <v>171</v>
       </c>
       <c r="D440">
-        <v>144.8623625779793</v>
+        <v>144.8683265717344</v>
       </c>
     </row>
     <row r="441" spans="1:4">
@@ -7432,7 +7432,7 @@
         <v>173</v>
       </c>
       <c r="D442">
-        <v>140.482787013643</v>
+        <v>140.4709265242394</v>
       </c>
     </row>
     <row r="443" spans="1:4">
@@ -7474,7 +7474,7 @@
         <v>176</v>
       </c>
       <c r="D445">
-        <v>147.7681203684795</v>
+        <v>147.8149680232372</v>
       </c>
     </row>
     <row r="446" spans="1:4">
@@ -7488,7 +7488,7 @@
         <v>177</v>
       </c>
       <c r="D446">
-        <v>123.6287251969268</v>
+        <v>123.6302877441595</v>
       </c>
     </row>
     <row r="447" spans="1:4">
@@ -7502,7 +7502,7 @@
         <v>178</v>
       </c>
       <c r="D447">
-        <v>206.1589505099915</v>
+        <v>206.1670286794395</v>
       </c>
     </row>
     <row r="448" spans="1:4">
@@ -7656,7 +7656,7 @@
         <v>189</v>
       </c>
       <c r="D458">
-        <v>112.1081059485591</v>
+        <v>112.103487458689</v>
       </c>
     </row>
     <row r="459" spans="1:4">
@@ -7950,7 +7950,7 @@
         <v>210</v>
       </c>
       <c r="D479">
-        <v>90.1942175676142</v>
+        <v>90.19593653637087</v>
       </c>
     </row>
     <row r="480" spans="1:4">
@@ -8454,7 +8454,7 @@
         <v>246</v>
       </c>
       <c r="D515">
-        <v>140.7423562440302</v>
+        <v>140.7470291308888</v>
       </c>
     </row>
     <row r="516" spans="1:4">
@@ -8566,7 +8566,7 @@
         <v>254</v>
       </c>
       <c r="D523">
-        <v>158.5629259073979</v>
+        <v>158.584921230276</v>
       </c>
     </row>
     <row r="524" spans="1:4">
@@ -8748,7 +8748,7 @@
         <v>267</v>
       </c>
       <c r="D536">
-        <v>142.0115290829223</v>
+        <v>142.0066658214418</v>
       </c>
     </row>
     <row r="537" spans="1:4">
@@ -8818,7 +8818,7 @@
         <v>272</v>
       </c>
       <c r="D541">
-        <v>151.8665274481311</v>
+        <v>151.8769307683783</v>
       </c>
     </row>
     <row r="542" spans="1:4">
@@ -8888,7 +8888,7 @@
         <v>277</v>
       </c>
       <c r="D546">
-        <v>146.5383050972133</v>
+        <v>146.5389013141778</v>
       </c>
     </row>
     <row r="547" spans="1:4">
@@ -8902,7 +8902,7 @@
         <v>278</v>
       </c>
       <c r="D547">
-        <v>147.9866250261774</v>
+        <v>147.9859807910152</v>
       </c>
     </row>
     <row r="548" spans="1:4">
@@ -11562,7 +11562,7 @@
         <v>189</v>
       </c>
       <c r="D737">
-        <v>110.5239619132108</v>
+        <v>110.522998324981</v>
       </c>
     </row>
     <row r="738" spans="1:4">
@@ -15468,7 +15468,7 @@
         <v>189</v>
       </c>
       <c r="D1016">
-        <v>110.646740433415</v>
+        <v>110.6433506683097</v>
       </c>
     </row>
     <row r="1017" spans="1:4">
@@ -19374,7 +19374,7 @@
         <v>189</v>
       </c>
       <c r="D1295">
-        <v>112.7911968967859</v>
+        <v>112.7805716461989</v>
       </c>
     </row>
     <row r="1296" spans="1:4">
@@ -21992,7 +21992,7 @@
         <v>97</v>
       </c>
       <c r="D1482">
-        <v>119.139080736723</v>
+        <v>119.1368815264464</v>
       </c>
     </row>
     <row r="1483" spans="1:4">
@@ -23280,7 +23280,7 @@
         <v>189</v>
       </c>
       <c r="D1574">
-        <v>113.7406163940642</v>
+        <v>113.7279461094889</v>
       </c>
     </row>
     <row r="1575" spans="1:4">
@@ -24960,7 +24960,7 @@
         <v>30</v>
       </c>
       <c r="D1694">
-        <v>205.2086283750461</v>
+        <v>205.1776183577993</v>
       </c>
     </row>
     <row r="1695" spans="1:4">
@@ -25072,7 +25072,7 @@
         <v>38</v>
       </c>
       <c r="D1702">
-        <v>421.9525125031884</v>
+        <v>421.9609301973129</v>
       </c>
     </row>
     <row r="1703" spans="1:4">
@@ -25478,7 +25478,7 @@
         <v>67</v>
       </c>
       <c r="D1731">
-        <v>137.4220329082347</v>
+        <v>137.4131193667507</v>
       </c>
     </row>
     <row r="1732" spans="1:4">
@@ -26836,7 +26836,7 @@
         <v>164</v>
       </c>
       <c r="D1828">
-        <v>111.7797973669747</v>
+        <v>111.7932828771533</v>
       </c>
     </row>
     <row r="1829" spans="1:4">
@@ -27186,7 +27186,7 @@
         <v>189</v>
       </c>
       <c r="D1853">
-        <v>114.4860408323722</v>
+        <v>114.4688733314474</v>
       </c>
     </row>
     <row r="1854" spans="1:4">
@@ -31092,7 +31092,7 @@
         <v>189</v>
       </c>
       <c r="D2132">
-        <v>114.6212528207576</v>
+        <v>114.6047173450296</v>
       </c>
     </row>
     <row r="2133" spans="1:4">
